--- a/QA/UIAutomation/SpecFramework/FeatureFiles/DataResources/TridTestScenarios.xlsx
+++ b/QA/UIAutomation/SpecFramework/FeatureFiles/DataResources/TridTestScenarios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="759" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="759" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="LoanEstimate - NOT USED" sheetId="6" state="hidden" r:id="rId1"/>
@@ -243,7 +243,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4553" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4553" uniqueCount="605">
   <si>
     <t xml:space="preserve">30 Over 360 </t>
   </si>
@@ -1622,21 +1622,6 @@
     <t>Tax,No,0</t>
   </si>
   <si>
-    <t>1,900,3/1/2013,Insurance</t>
-  </si>
-  <si>
-    <t>2,1200,8/1/2012,Tax</t>
-  </si>
-  <si>
-    <t>3,1200,11/1/2012,Tax</t>
-  </si>
-  <si>
-    <t>1,900,2/28/2013,Insurance</t>
-  </si>
-  <si>
-    <t>4,600,11/1/2012,Other1</t>
-  </si>
-  <si>
     <t>Percentage</t>
   </si>
   <si>
@@ -1740,15 +1725,6 @@
   </si>
   <si>
     <t>200.00,200.00,200.00,200.00,200.00,200.00,200.00,200.00,200.00,200.00,200.00,200.00,200.00</t>
-  </si>
-  <si>
-    <t>1,900,9/1/2017,Insurance</t>
-  </si>
-  <si>
-    <t>2,1200,2/1/2017,Tax</t>
-  </si>
-  <si>
-    <t>3,1200,5/1/2017,Tax</t>
   </si>
   <si>
     <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31</t>
@@ -1895,33 +1871,6 @@
     <t>183.17,0</t>
   </si>
   <si>
-    <t>1,2700,8/1/2017,Insurance</t>
-  </si>
-  <si>
-    <t>2,39984.34,6/1/2017,Tax</t>
-  </si>
-  <si>
-    <t>1,3946,8/1/2017,Insurance</t>
-  </si>
-  <si>
-    <t>1,840,11/1/2017,Insurance</t>
-  </si>
-  <si>
-    <t>2,1104,5/1/2017,Tax</t>
-  </si>
-  <si>
-    <t>3,1104,11/1/2017,Tax</t>
-  </si>
-  <si>
-    <t>1,1149,9/1/2017,Insurance</t>
-  </si>
-  <si>
-    <t>2,1099,3/1/2017,Tax</t>
-  </si>
-  <si>
-    <t>3,1099,9/1/2017,Tax</t>
-  </si>
-  <si>
     <t>NumberOfMthsOrDaysInUnitPeriod</t>
   </si>
   <si>
@@ -2042,9 +1991,6 @@
     <t>Fixed Rate</t>
   </si>
   <si>
-    <t xml:space="preserve">Fixed Rate </t>
-  </si>
-  <si>
     <t>Conventional</t>
   </si>
   <si>
@@ -2061,6 +2007,57 @@
   </si>
   <si>
     <t>Whole Loan Term</t>
+  </si>
+  <si>
+    <t>1,900,3/1/2013,Insurance,Yes</t>
+  </si>
+  <si>
+    <t>1,900,2/28/2013,Insurance,Yes</t>
+  </si>
+  <si>
+    <t>1,2700,8/1/2017,Insurance,Yes</t>
+  </si>
+  <si>
+    <t>1,3946,8/1/2017,Insurance,Yes</t>
+  </si>
+  <si>
+    <t>1,840,11/1/2017,Insurance,Yes</t>
+  </si>
+  <si>
+    <t>1,1149,9/1/2017,Insurance,Yes</t>
+  </si>
+  <si>
+    <t>1,900,9/1/2017,Insurance,Yes</t>
+  </si>
+  <si>
+    <t>2,1200,8/1/2012,Tax,Yes</t>
+  </si>
+  <si>
+    <t>3,1200,11/1/2012,Tax,Yes</t>
+  </si>
+  <si>
+    <t>2,39984.34,6/1/2017,Tax,Yes</t>
+  </si>
+  <si>
+    <t>2,1104,5/1/2017,Tax,Yes</t>
+  </si>
+  <si>
+    <t>3,1104,11/1/2017,Tax,Yes</t>
+  </si>
+  <si>
+    <t>2,1099,3/1/2017,Tax,Yes</t>
+  </si>
+  <si>
+    <t>3,1099,9/1/2017,Tax,Yes</t>
+  </si>
+  <si>
+    <t>2,1200,2/1/2017,Tax,Yes</t>
+  </si>
+  <si>
+    <t>3,1200,5/1/2017,Tax,Yes</t>
+  </si>
+  <si>
+    <t>4,600,11/1/2012,Other1,Yes</t>
   </si>
 </sst>
 </file>
@@ -2593,7 +2590,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="255">
+  <cellXfs count="256">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
@@ -3258,6 +3255,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5017,7 +5017,7 @@
         <v>23</v>
       </c>
       <c r="C20" s="118" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>64</v>
@@ -5032,7 +5032,7 @@
         <v>66</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="126" customFormat="1" x14ac:dyDescent="0.25">
@@ -5043,7 +5043,7 @@
         <v>24</v>
       </c>
       <c r="C21" s="118" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>64</v>
@@ -5069,7 +5069,7 @@
         <v>25</v>
       </c>
       <c r="C22" s="118" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>64</v>
@@ -5084,7 +5084,7 @@
         <v>66</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="126" customFormat="1" x14ac:dyDescent="0.25">
@@ -5095,7 +5095,7 @@
         <v>26</v>
       </c>
       <c r="C23" s="118" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>64</v>
@@ -7136,13 +7136,13 @@
         <v>321</v>
       </c>
       <c r="D1" s="194" t="s">
-        <v>594</v>
+        <v>577</v>
       </c>
       <c r="E1" s="194" t="s">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="F1" s="194" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
       <c r="G1" s="194" t="s">
         <v>325</v>
@@ -7180,7 +7180,7 @@
         <v>332</v>
       </c>
       <c r="H2" s="196" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I2" s="195" t="s">
         <v>332</v>
@@ -7200,7 +7200,7 @@
         <v>376</v>
       </c>
       <c r="D3" s="195" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="E3" s="195" t="s">
         <v>377</v>
@@ -7261,7 +7261,7 @@
         <v>327</v>
       </c>
       <c r="C5" s="195" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="D5" s="195" t="s">
         <v>380</v>
@@ -7357,7 +7357,7 @@
         <v>327</v>
       </c>
       <c r="C8" s="195" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="D8" s="195" t="s">
         <v>386</v>
@@ -7392,10 +7392,10 @@
         <v>401</v>
       </c>
       <c r="D9" s="195" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="E9" s="195" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="F9" s="195" t="s">
         <v>370</v>
@@ -7459,7 +7459,7 @@
         <v>390</v>
       </c>
       <c r="E11" s="195" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="F11" s="195" t="s">
         <v>366</v>
@@ -7654,19 +7654,19 @@
         <v>407</v>
       </c>
       <c r="F17" s="195" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G17" s="195" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="H17" s="196" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I17" s="195" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="J17" s="195" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -7680,25 +7680,25 @@
         <v>406</v>
       </c>
       <c r="D18" s="195" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="E18" s="195" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F18" s="195" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G18" s="195" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="H18" s="196" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I18" s="195" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="J18" s="195" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -7712,25 +7712,25 @@
         <v>406</v>
       </c>
       <c r="D19" s="195" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="E19" s="195" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F19" s="195" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G19" s="195" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="H19" s="196" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I19" s="195" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="J19" s="195" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -7805,22 +7805,22 @@
         <v>327</v>
       </c>
       <c r="C22" s="196" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="D22" s="195" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="E22" s="195" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="F22" s="195" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="G22" s="195" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="H22" s="195" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="I22" s="195" t="s">
         <v>332</v>
@@ -7840,25 +7840,25 @@
         <v>100260</v>
       </c>
       <c r="D23" s="195" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="E23" s="195" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="F23" s="195" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="G23" s="195" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="H23" s="195" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="I23" s="195" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="J23" s="195" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -7922,19 +7922,19 @@
         <v>407</v>
       </c>
       <c r="F26" s="197" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G26" s="197" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="H26" s="197" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I26" s="197" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="J26" s="197" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="179" customFormat="1" x14ac:dyDescent="0.25">
@@ -7954,19 +7954,19 @@
         <v>407</v>
       </c>
       <c r="F27" s="197" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G27" s="197" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="H27" s="197" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="I27" s="197" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="J27" s="197" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="28" spans="1:10" s="179" customFormat="1" x14ac:dyDescent="0.25">
@@ -8018,19 +8018,19 @@
         <v>407</v>
       </c>
       <c r="F29" s="197" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G29" s="197" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="H29" s="197" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I29" s="197" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="J29" s="197" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -8041,28 +8041,28 @@
         <v>405</v>
       </c>
       <c r="C30" s="195" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="D30" s="195" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="E30" s="195" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="F30" s="195" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G30" s="195" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="H30" s="196" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I30" s="195" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="J30" s="195" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -8073,7 +8073,7 @@
         <v>327</v>
       </c>
       <c r="C31" s="195" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="D31" s="195" t="s">
         <v>397</v>
@@ -8105,28 +8105,28 @@
         <v>404</v>
       </c>
       <c r="C32" s="195" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="D32" s="195" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="E32" s="195" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="F32" s="195" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="G32" s="195" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="H32" s="195" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="I32" s="195" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="J32" s="195" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -8202,19 +8202,19 @@
         <v>411</v>
       </c>
       <c r="F36" s="197" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G36" s="197" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="H36" s="197" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="I36" s="197" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="J36" s="197" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -8234,19 +8234,19 @@
         <v>413</v>
       </c>
       <c r="F37" s="197" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G37" s="197" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="H37" s="197" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="I37" s="197" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="J37" s="197" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -8266,19 +8266,19 @@
         <v>415</v>
       </c>
       <c r="F38" s="197" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G38" s="197" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="H38" s="197" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="I38" s="197" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="J38" s="197" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -8298,19 +8298,19 @@
         <v>416</v>
       </c>
       <c r="F39" s="197" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G39" s="197" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="H39" s="197" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="I39" s="197" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="J39" s="197" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -8330,19 +8330,19 @@
         <v>418</v>
       </c>
       <c r="F40" s="197" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G40" s="197" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="H40" s="197" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="I40" s="197" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="J40" s="197" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -8362,19 +8362,19 @@
         <v>420</v>
       </c>
       <c r="F41" s="197" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G41" s="197" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="H41" s="197" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="I41" s="197" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="J41" s="197" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -8394,19 +8394,19 @@
         <v>421</v>
       </c>
       <c r="F42" s="197" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G42" s="197" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="H42" s="197" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="I42" s="197" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="J42" s="197" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -8420,25 +8420,25 @@
         <v>414</v>
       </c>
       <c r="D43" s="195" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="E43" s="195" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="F43" s="197" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G43" s="197" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="H43" s="197" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="I43" s="197" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="J43" s="197" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -9042,19 +9042,19 @@
         <v>411</v>
       </c>
       <c r="F76" s="198" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G76" s="198" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="H76" s="199" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="I76" s="198" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="J76" s="198" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -9074,19 +9074,19 @@
         <v>413</v>
       </c>
       <c r="F77" s="198" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G77" s="199" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="H77" s="199" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="I77" s="198" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="J77" s="198" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -9106,19 +9106,19 @@
         <v>415</v>
       </c>
       <c r="F78" s="198" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G78" s="198" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="H78" s="199" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="I78" s="198" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="J78" s="198" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -9138,19 +9138,19 @@
         <v>416</v>
       </c>
       <c r="F79" s="198" t="s">
+        <v>461</v>
+      </c>
+      <c r="G79" s="199" t="s">
         <v>466</v>
       </c>
-      <c r="G79" s="199" t="s">
-        <v>471</v>
-      </c>
       <c r="H79" s="199" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="I79" s="198" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="J79" s="198" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -9170,19 +9170,19 @@
         <v>418</v>
       </c>
       <c r="F80" s="198" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G80" s="199" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="H80" s="199" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="I80" s="198" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="J80" s="198" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -9202,19 +9202,19 @@
         <v>420</v>
       </c>
       <c r="F81" s="198" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G81" s="199" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="H81" s="199" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="I81" s="198" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="J81" s="198" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -9234,19 +9234,19 @@
         <v>421</v>
       </c>
       <c r="F82" s="198" t="s">
+        <v>461</v>
+      </c>
+      <c r="G82" s="199" t="s">
         <v>466</v>
       </c>
-      <c r="G82" s="199" t="s">
-        <v>471</v>
-      </c>
       <c r="H82" s="199" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="I82" s="198" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="J82" s="198" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -9260,25 +9260,25 @@
         <v>414</v>
       </c>
       <c r="D83" s="195" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="E83" s="195" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="F83" s="198" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G83" s="199" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="H83" s="199" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="I83" s="198" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="J83" s="198" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -9985,13 +9985,13 @@
         <v>327</v>
       </c>
       <c r="C124" s="195" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="D124" s="195" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="E124" s="195" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="F124" s="195" t="s">
         <v>332</v>
@@ -10020,25 +10020,25 @@
         <v>406</v>
       </c>
       <c r="D125" s="195" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="E125" s="195" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="F125" s="195" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G125" s="195" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="H125" s="195" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="I125" s="195" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="J125" s="195" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
@@ -10049,13 +10049,13 @@
         <v>327</v>
       </c>
       <c r="C126" s="195" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="D126" s="195" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="E126" s="195" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="F126" s="195" t="s">
         <v>332</v>
@@ -10081,13 +10081,13 @@
         <v>327</v>
       </c>
       <c r="C127" s="195" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="D127" s="195" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="E127" s="195" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="F127" s="195" t="s">
         <v>332</v>
@@ -10113,28 +10113,28 @@
         <v>404</v>
       </c>
       <c r="C128" s="195" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D128" s="195" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="E128" s="195" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="F128" s="195" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="G128" s="195" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="H128" s="195" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="I128" s="195" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="J128" s="195" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
@@ -10145,13 +10145,13 @@
         <v>327</v>
       </c>
       <c r="C129" s="195" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="D129" s="195" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="E129" s="195" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="F129" s="195" t="s">
         <v>332</v>
@@ -10180,25 +10180,25 @@
         <v>406</v>
       </c>
       <c r="D130" s="195" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="E130" s="195" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="F130" s="195" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G130" s="195" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="H130" s="195" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="I130" s="195" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="J130" s="195" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
@@ -10212,25 +10212,25 @@
         <v>406</v>
       </c>
       <c r="D131" s="195" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="E131" s="195" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="F131" s="195" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G131" s="195" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="H131" s="195" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="I131" s="195" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="J131" s="195" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
@@ -10241,13 +10241,13 @@
         <v>327</v>
       </c>
       <c r="C132" s="195" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="D132" s="195" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="E132" s="195" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="F132" s="195" t="s">
         <v>332</v>
@@ -10273,28 +10273,28 @@
         <v>404</v>
       </c>
       <c r="C133" s="195" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D133" s="195" t="s">
-        <v>588</v>
+        <v>571</v>
       </c>
       <c r="E133" s="195" t="s">
-        <v>588</v>
+        <v>571</v>
       </c>
       <c r="F133" s="195" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="G133" s="195" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="H133" s="195" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="I133" s="195" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="J133" s="195" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -10302,31 +10302,31 @@
         <v>150</v>
       </c>
       <c r="B136" s="195" t="s">
+        <v>487</v>
+      </c>
+      <c r="C136" s="195" t="s">
+        <v>488</v>
+      </c>
+      <c r="D136" s="195" t="s">
+        <v>489</v>
+      </c>
+      <c r="E136" s="195" t="s">
+        <v>490</v>
+      </c>
+      <c r="F136" s="195" t="s">
+        <v>491</v>
+      </c>
+      <c r="G136" s="195" t="s">
         <v>492</v>
       </c>
-      <c r="C136" s="195" t="s">
+      <c r="H136" s="195" t="s">
         <v>493</v>
       </c>
-      <c r="D136" s="195" t="s">
-        <v>494</v>
-      </c>
-      <c r="E136" s="195" t="s">
-        <v>495</v>
-      </c>
-      <c r="F136" s="195" t="s">
-        <v>496</v>
-      </c>
-      <c r="G136" s="195" t="s">
-        <v>497</v>
-      </c>
-      <c r="H136" s="195" t="s">
-        <v>498</v>
-      </c>
       <c r="I136" s="195" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="J136" s="195" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="135" x14ac:dyDescent="0.25">
@@ -10334,31 +10334,31 @@
         <v>151</v>
       </c>
       <c r="B137" s="195" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="C137" s="195" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="D137" s="195" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="E137" s="195" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="F137" s="195" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="G137" s="195" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="H137" s="195" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="I137" s="195" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="J137" s="195" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
@@ -10461,13 +10461,13 @@
         <v>327</v>
       </c>
       <c r="C2" s="140" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="D2" s="140" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="E2" s="140" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="F2" s="140" t="s">
         <v>332</v>
@@ -10496,25 +10496,25 @@
         <v>406</v>
       </c>
       <c r="D3" s="140" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="E3" s="140" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="F3" s="140" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G3" s="140" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="H3" s="140" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="I3" s="140" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="J3" s="140" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -10525,13 +10525,13 @@
         <v>327</v>
       </c>
       <c r="C4" s="140" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="D4" s="140" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="E4" s="140" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="F4" s="140" t="s">
         <v>332</v>
@@ -10557,13 +10557,13 @@
         <v>327</v>
       </c>
       <c r="C5" s="140" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="D5" s="140" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="E5" s="140" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F5" s="140" t="s">
         <v>332</v>
@@ -10592,10 +10592,10 @@
         <v>406</v>
       </c>
       <c r="D6" s="140" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="E6" s="140" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="F6" s="140" t="s">
         <v>332</v>
@@ -10621,13 +10621,13 @@
         <v>327</v>
       </c>
       <c r="C7" s="140" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="D7" s="140" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="E7" s="140" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="F7" s="140" t="s">
         <v>332</v>
@@ -10653,13 +10653,13 @@
         <v>327</v>
       </c>
       <c r="C8" s="140" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="D8" s="140" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="E8" s="140" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F8" s="140" t="s">
         <v>332</v>
@@ -10688,25 +10688,25 @@
         <v>406</v>
       </c>
       <c r="D9" s="140" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="E9" s="140" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="F9" s="140" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G9" s="140" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="H9" s="140" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="I9" s="140" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="J9" s="140" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -10717,13 +10717,13 @@
         <v>327</v>
       </c>
       <c r="C10" s="140" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="D10" s="140" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="E10" s="140" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="F10" s="140" t="s">
         <v>332</v>
@@ -10749,28 +10749,28 @@
         <v>404</v>
       </c>
       <c r="C11" s="140" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D11" s="140" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="E11" s="140" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="F11" s="140" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="G11" s="140" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="H11" s="140" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="I11" s="140" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="J11" s="140" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -10812,13 +10812,13 @@
         <v>321</v>
       </c>
       <c r="D1" s="194" t="s">
-        <v>594</v>
+        <v>577</v>
       </c>
       <c r="E1" s="194" t="s">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="F1" s="194" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
       <c r="G1" s="169" t="s">
         <v>325</v>
@@ -10838,31 +10838,31 @@
         <v>138</v>
       </c>
       <c r="B2" s="140" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="C2" s="140" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="D2" s="140" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="E2" s="140" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="F2" s="140" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="G2" s="140" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="H2" s="140" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="I2" s="140" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="J2" s="140" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -10870,31 +10870,31 @@
         <v>139</v>
       </c>
       <c r="B3" s="140" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="C3" s="140" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="D3" s="140" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="E3" s="140" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="F3" s="140" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="G3" s="140" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="H3" s="140" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="I3" s="140" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="J3" s="140" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -10902,31 +10902,31 @@
         <v>140</v>
       </c>
       <c r="B4" s="140" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="C4" s="140" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="D4" s="140" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="E4" s="140" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="F4" s="140" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="G4" s="140" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="H4" s="140" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="I4" s="140" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="J4" s="140" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -10934,31 +10934,31 @@
         <v>141</v>
       </c>
       <c r="B5" s="140" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="C5" s="140" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="D5" s="140" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="E5" s="140" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="F5" s="140" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="G5" s="140" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="H5" s="140" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="I5" s="140" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="J5" s="140" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -10966,31 +10966,31 @@
         <v>142</v>
       </c>
       <c r="B6" s="140" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="C6" s="140" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="D6" s="140" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="E6" s="140" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="F6" s="140" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="G6" s="140" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="H6" s="140" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="I6" s="140" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="J6" s="140" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -10998,31 +10998,31 @@
         <v>143</v>
       </c>
       <c r="B7" s="140" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="C7" s="140" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="D7" s="140" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="E7" s="140" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="F7" s="140" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="G7" s="140" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="H7" s="140" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="I7" s="140" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="J7" s="140" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -11030,31 +11030,31 @@
         <v>144</v>
       </c>
       <c r="B8" s="140" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="C8" s="140" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="D8" s="140" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="E8" s="140" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="F8" s="140" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="G8" s="140" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="H8" s="140" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="I8" s="140" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="J8" s="140" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -11062,31 +11062,31 @@
         <v>145</v>
       </c>
       <c r="B9" s="140" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="C9" s="140" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="D9" s="140" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="E9" s="140" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="F9" s="140" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="G9" s="140" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="H9" s="140" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="I9" s="140" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="J9" s="140" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -11094,31 +11094,31 @@
         <v>146</v>
       </c>
       <c r="B10" s="140" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="C10" s="140" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="D10" s="140" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="E10" s="140" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="F10" s="140" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="G10" s="140" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="H10" s="140" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="I10" s="140" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="J10" s="140" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -11126,31 +11126,31 @@
         <v>147</v>
       </c>
       <c r="B11" s="140" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="C11" s="140" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="D11" s="140" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
       <c r="E11" s="140" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
       <c r="F11" s="140" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="G11" s="140" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="H11" s="140" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="I11" s="140" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="J11" s="140" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
   </sheetData>
@@ -11300,7 +11300,7 @@
         <v>363</v>
       </c>
       <c r="AF1" s="174" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
@@ -19451,44 +19451,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J1" s="246" t="s">
+      <c r="J1" s="247" t="s">
         <v>180</v>
       </c>
-      <c r="K1" s="246"/>
-      <c r="L1" s="246"/>
-      <c r="M1" s="246"/>
-      <c r="N1" s="246"/>
-      <c r="O1" s="246"/>
-      <c r="P1" s="246"/>
-      <c r="Q1" s="246"/>
-      <c r="R1" s="246"/>
-      <c r="S1" s="246"/>
-      <c r="T1" s="246" t="s">
+      <c r="K1" s="247"/>
+      <c r="L1" s="247"/>
+      <c r="M1" s="247"/>
+      <c r="N1" s="247"/>
+      <c r="O1" s="247"/>
+      <c r="P1" s="247"/>
+      <c r="Q1" s="247"/>
+      <c r="R1" s="247"/>
+      <c r="S1" s="247"/>
+      <c r="T1" s="247" t="s">
         <v>181</v>
       </c>
-      <c r="U1" s="246"/>
-      <c r="V1" s="246"/>
-      <c r="W1" s="246"/>
-      <c r="X1" s="246"/>
-      <c r="Y1" s="246"/>
-      <c r="Z1" s="246"/>
-      <c r="AA1" s="246"/>
-      <c r="AB1" s="246"/>
-      <c r="AC1" s="247" t="s">
+      <c r="U1" s="247"/>
+      <c r="V1" s="247"/>
+      <c r="W1" s="247"/>
+      <c r="X1" s="247"/>
+      <c r="Y1" s="247"/>
+      <c r="Z1" s="247"/>
+      <c r="AA1" s="247"/>
+      <c r="AB1" s="247"/>
+      <c r="AC1" s="248" t="s">
         <v>182</v>
       </c>
-      <c r="AD1" s="247"/>
-      <c r="AE1" s="247"/>
-      <c r="AF1" s="247"/>
-      <c r="AG1" s="247"/>
-      <c r="AH1" s="247"/>
-      <c r="AI1" s="247"/>
-      <c r="AJ1" s="247"/>
-      <c r="AK1" s="247"/>
-      <c r="AL1" s="247"/>
-      <c r="AM1" s="247"/>
-      <c r="AN1" s="247"/>
-      <c r="AO1" s="247"/>
+      <c r="AD1" s="248"/>
+      <c r="AE1" s="248"/>
+      <c r="AF1" s="248"/>
+      <c r="AG1" s="248"/>
+      <c r="AH1" s="248"/>
+      <c r="AI1" s="248"/>
+      <c r="AJ1" s="248"/>
+      <c r="AK1" s="248"/>
+      <c r="AL1" s="248"/>
+      <c r="AM1" s="248"/>
+      <c r="AN1" s="248"/>
+      <c r="AO1" s="248"/>
     </row>
     <row r="2" spans="1:66" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
@@ -29702,19 +29702,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CG169"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F137" sqref="D136:F137"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E137" sqref="E137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" style="159" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
-    <col min="7" max="8" width="11" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29.140625" customWidth="1"/>
     <col min="10" max="10" width="23.5703125" customWidth="1"/>
     <col min="11" max="11" width="33.7109375" style="106" bestFit="1" customWidth="1"/>
@@ -29746,45 +29750,45 @@
     <col min="38" max="38" width="11.42578125" style="106" customWidth="1"/>
     <col min="39" max="39" width="31.5703125" style="106" customWidth="1"/>
     <col min="40" max="41" width="25.28515625" style="106" customWidth="1"/>
-    <col min="42" max="42" width="21.140625" style="242" hidden="1" customWidth="1"/>
-    <col min="43" max="43" width="16.42578125" style="106" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="25.28515625" style="106" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="14.85546875" style="106" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="18.28515625" style="106" hidden="1" customWidth="1"/>
-    <col min="47" max="47" width="30.7109375" style="106" hidden="1" customWidth="1"/>
-    <col min="48" max="48" width="6.140625" style="106" hidden="1" customWidth="1"/>
-    <col min="49" max="49" width="8.42578125" style="106" hidden="1" customWidth="1"/>
-    <col min="50" max="50" width="31.7109375" style="106" hidden="1" customWidth="1"/>
-    <col min="51" max="51" width="19.140625" style="106" hidden="1" customWidth="1"/>
-    <col min="52" max="52" width="14.140625" style="106" hidden="1" customWidth="1"/>
-    <col min="53" max="53" width="16.7109375" style="106" hidden="1" customWidth="1"/>
-    <col min="54" max="54" width="8" style="106" hidden="1" customWidth="1"/>
-    <col min="55" max="55" width="52.140625" style="106" hidden="1" customWidth="1"/>
-    <col min="56" max="56" width="58.5703125" style="106" hidden="1" customWidth="1"/>
-    <col min="57" max="57" width="18.85546875" style="106" hidden="1" customWidth="1"/>
-    <col min="58" max="58" width="31.140625" style="106" hidden="1" customWidth="1"/>
-    <col min="59" max="59" width="16.7109375" style="106" hidden="1" customWidth="1"/>
-    <col min="60" max="60" width="37.28515625" style="106" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="21.140625" style="242" customWidth="1"/>
+    <col min="43" max="43" width="16.42578125" style="106" customWidth="1"/>
+    <col min="44" max="44" width="25.28515625" style="106" customWidth="1"/>
+    <col min="45" max="45" width="14.85546875" style="106" customWidth="1"/>
+    <col min="46" max="46" width="18.28515625" style="106" customWidth="1"/>
+    <col min="47" max="47" width="30.7109375" style="106" customWidth="1"/>
+    <col min="48" max="48" width="6.140625" style="106" customWidth="1"/>
+    <col min="49" max="49" width="8.42578125" style="106" customWidth="1"/>
+    <col min="50" max="50" width="31.7109375" style="106" customWidth="1"/>
+    <col min="51" max="51" width="19.140625" style="106" customWidth="1"/>
+    <col min="52" max="52" width="14.140625" style="106" customWidth="1"/>
+    <col min="53" max="53" width="16.7109375" style="106" customWidth="1"/>
+    <col min="54" max="54" width="8" style="106" customWidth="1"/>
+    <col min="55" max="55" width="52.140625" style="106" customWidth="1"/>
+    <col min="56" max="56" width="58.5703125" style="106" customWidth="1"/>
+    <col min="57" max="57" width="18.85546875" style="106" customWidth="1"/>
+    <col min="58" max="58" width="31.140625" style="106" customWidth="1"/>
+    <col min="59" max="59" width="16.7109375" style="106" customWidth="1"/>
+    <col min="60" max="60" width="37.28515625" style="106" customWidth="1"/>
     <col min="61" max="61" width="26.85546875" style="106" customWidth="1"/>
     <col min="62" max="62" width="13.5703125" style="106" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="10.5703125" style="106" hidden="1" customWidth="1"/>
-    <col min="64" max="64" width="12.42578125" style="106" hidden="1" customWidth="1"/>
-    <col min="65" max="65" width="19.28515625" style="106" hidden="1" customWidth="1"/>
-    <col min="66" max="66" width="20.28515625" style="106" hidden="1" customWidth="1"/>
-    <col min="67" max="67" width="21.42578125" style="106" hidden="1" customWidth="1"/>
-    <col min="68" max="68" width="24.28515625" style="106" hidden="1" customWidth="1"/>
-    <col min="69" max="69" width="7.5703125" style="106" hidden="1" customWidth="1"/>
-    <col min="70" max="70" width="35.140625" style="106" hidden="1" customWidth="1"/>
-    <col min="71" max="71" width="19.5703125" style="106" hidden="1" customWidth="1"/>
-    <col min="72" max="72" width="17.28515625" style="106" hidden="1" customWidth="1"/>
-    <col min="73" max="73" width="19.42578125" style="106" hidden="1" customWidth="1"/>
-    <col min="74" max="74" width="7.7109375" style="106" hidden="1" customWidth="1"/>
-    <col min="75" max="75" width="55.140625" style="106" hidden="1" customWidth="1"/>
-    <col min="76" max="76" width="39.42578125" style="106" hidden="1" customWidth="1"/>
-    <col min="77" max="77" width="20.140625" style="106" hidden="1" customWidth="1"/>
-    <col min="78" max="78" width="28.28515625" style="106" hidden="1" customWidth="1"/>
-    <col min="79" max="79" width="19.28515625" style="106" hidden="1" customWidth="1"/>
-    <col min="80" max="80" width="41" style="106" hidden="1" customWidth="1"/>
+    <col min="63" max="63" width="10.5703125" style="106" customWidth="1"/>
+    <col min="64" max="64" width="12.42578125" style="106" customWidth="1"/>
+    <col min="65" max="65" width="19.28515625" style="106" customWidth="1"/>
+    <col min="66" max="66" width="20.28515625" style="106" customWidth="1"/>
+    <col min="67" max="67" width="21.42578125" style="106" customWidth="1"/>
+    <col min="68" max="68" width="24.28515625" style="106" customWidth="1"/>
+    <col min="69" max="69" width="7.5703125" style="106" customWidth="1"/>
+    <col min="70" max="70" width="35.140625" style="106" customWidth="1"/>
+    <col min="71" max="71" width="19.5703125" style="106" customWidth="1"/>
+    <col min="72" max="72" width="17.28515625" style="106" customWidth="1"/>
+    <col min="73" max="73" width="19.42578125" style="106" customWidth="1"/>
+    <col min="74" max="74" width="7.7109375" style="106" customWidth="1"/>
+    <col min="75" max="75" width="55.140625" style="106" customWidth="1"/>
+    <col min="76" max="76" width="39.42578125" style="106" customWidth="1"/>
+    <col min="77" max="77" width="20.140625" style="106" customWidth="1"/>
+    <col min="78" max="78" width="28.28515625" style="106" customWidth="1"/>
+    <col min="79" max="79" width="19.28515625" style="106" customWidth="1"/>
+    <col min="80" max="80" width="41" style="106" customWidth="1"/>
     <col min="81" max="81" width="29.42578125" style="106" bestFit="1" customWidth="1"/>
     <col min="82" max="82" width="18.28515625" style="106" bestFit="1" customWidth="1"/>
     <col min="83" max="83" width="14.5703125" style="106" hidden="1" customWidth="1"/>
@@ -29813,7 +29817,7 @@
         <v>37</v>
       </c>
       <c r="G1" s="93" t="s">
-        <v>597</v>
+        <v>580</v>
       </c>
       <c r="H1" s="93" t="s">
         <v>11</v>
@@ -29825,13 +29829,13 @@
         <v>12</v>
       </c>
       <c r="K1" s="243" t="s">
-        <v>559</v>
+        <v>542</v>
       </c>
       <c r="L1" s="93" t="s">
         <v>13</v>
       </c>
       <c r="M1" s="41" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="N1" s="41" t="s">
         <v>321</v>
@@ -29846,31 +29850,31 @@
         <v>17</v>
       </c>
       <c r="R1" s="41" t="s">
-        <v>584</v>
+        <v>567</v>
       </c>
       <c r="S1" s="225" t="s">
-        <v>576</v>
+        <v>559</v>
       </c>
       <c r="T1" s="41" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="U1" s="41" t="s">
-        <v>585</v>
+        <v>568</v>
       </c>
       <c r="V1" s="41" t="s">
         <v>286</v>
       </c>
       <c r="W1" s="42" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="X1" s="133" t="s">
-        <v>577</v>
+        <v>560</v>
       </c>
       <c r="Y1" s="50" t="s">
-        <v>564</v>
+        <v>547</v>
       </c>
       <c r="Z1" s="222" t="s">
-        <v>565</v>
+        <v>548</v>
       </c>
       <c r="AA1" s="245" t="s">
         <v>250</v>
@@ -29879,16 +29883,16 @@
         <v>293</v>
       </c>
       <c r="AC1" s="50" t="s">
-        <v>578</v>
+        <v>561</v>
       </c>
       <c r="AD1" s="222" t="s">
-        <v>566</v>
+        <v>549</v>
       </c>
       <c r="AE1" s="50" t="s">
         <v>294</v>
       </c>
       <c r="AF1" s="244" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="AG1" s="244" t="s">
         <v>94</v>
@@ -29897,7 +29901,7 @@
         <v>95</v>
       </c>
       <c r="AI1" s="222" t="s">
-        <v>579</v>
+        <v>562</v>
       </c>
       <c r="AJ1" s="50" t="s">
         <v>56</v>
@@ -29912,13 +29916,13 @@
         <v>274</v>
       </c>
       <c r="AN1" s="226" t="s">
-        <v>586</v>
+        <v>569</v>
       </c>
       <c r="AO1" s="226" t="s">
-        <v>587</v>
+        <v>570</v>
       </c>
       <c r="AP1" s="237" t="s">
-        <v>593</v>
+        <v>576</v>
       </c>
       <c r="AQ1" s="162" t="s">
         <v>271</v>
@@ -29942,7 +29946,7 @@
         <v>302</v>
       </c>
       <c r="AX1" s="224" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="AY1" s="163" t="s">
         <v>133</v>
@@ -29957,31 +29961,31 @@
         <v>8</v>
       </c>
       <c r="BC1" s="224" t="s">
-        <v>568</v>
+        <v>551</v>
       </c>
       <c r="BD1" s="224" t="s">
-        <v>569</v>
+        <v>552</v>
       </c>
       <c r="BE1" s="163" t="s">
         <v>135</v>
       </c>
       <c r="BF1" s="224" t="s">
-        <v>570</v>
+        <v>553</v>
       </c>
       <c r="BG1" s="163" t="s">
         <v>298</v>
       </c>
       <c r="BH1" s="224" t="s">
-        <v>571</v>
+        <v>554</v>
       </c>
       <c r="BI1" s="231" t="s">
-        <v>581</v>
+        <v>564</v>
       </c>
       <c r="BJ1" s="224" t="s">
         <v>41</v>
       </c>
       <c r="BK1" s="224" t="s">
-        <v>583</v>
+        <v>566</v>
       </c>
       <c r="BL1" s="163" t="s">
         <v>275</v>
@@ -30002,7 +30006,7 @@
         <v>278</v>
       </c>
       <c r="BR1" s="224" t="s">
-        <v>572</v>
+        <v>555</v>
       </c>
       <c r="BS1" s="163" t="s">
         <v>279</v>
@@ -30017,16 +30021,16 @@
         <v>282</v>
       </c>
       <c r="BW1" s="224" t="s">
-        <v>573</v>
+        <v>556</v>
       </c>
       <c r="BX1" s="224" t="s">
-        <v>574</v>
+        <v>557</v>
       </c>
       <c r="BY1" s="163" t="s">
         <v>283</v>
       </c>
       <c r="BZ1" s="224" t="s">
-        <v>575</v>
+        <v>558</v>
       </c>
       <c r="CA1" s="163" t="s">
         <v>301</v>
@@ -30035,13 +30039,13 @@
         <v>295</v>
       </c>
       <c r="CC1" s="231" t="s">
-        <v>582</v>
+        <v>565</v>
       </c>
       <c r="CD1" s="231" t="s">
-        <v>591</v>
+        <v>574</v>
       </c>
       <c r="CE1" s="231" t="s">
-        <v>592</v>
+        <v>575</v>
       </c>
       <c r="CF1" s="163" t="s">
         <v>284</v>
@@ -30070,10 +30074,10 @@
         <v>41000</v>
       </c>
       <c r="G2" s="94" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H2" s="91" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I2" s="91" t="s">
         <v>74</v>
@@ -30097,7 +30101,7 @@
         <v>6</v>
       </c>
       <c r="P2" s="221" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q2" s="74">
         <v>3.75</v>
@@ -30329,10 +30333,10 @@
         <v>41030</v>
       </c>
       <c r="G3" s="94" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H3" s="91" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I3" s="91" t="s">
         <v>74</v>
@@ -30356,7 +30360,7 @@
         <v>6</v>
       </c>
       <c r="P3" s="221" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q3" s="74">
         <v>3.75</v>
@@ -30586,10 +30590,10 @@
         <v>40983</v>
       </c>
       <c r="G4" s="94" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H4" s="91" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I4" s="91" t="s">
         <v>74</v>
@@ -30613,7 +30617,7 @@
         <v>6</v>
       </c>
       <c r="P4" s="221" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q4" s="74">
         <v>3.75</v>
@@ -30843,10 +30847,10 @@
         <v>40983</v>
       </c>
       <c r="G5" s="94" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H5" s="91" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I5" s="91" t="s">
         <v>74</v>
@@ -30870,7 +30874,7 @@
         <v>6</v>
       </c>
       <c r="P5" s="221" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q5" s="74">
         <v>3.75</v>
@@ -31102,10 +31106,10 @@
         <v>41000</v>
       </c>
       <c r="G6" s="94" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H6" s="91" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I6" s="91" t="s">
         <v>119</v>
@@ -31129,7 +31133,7 @@
         <v>6</v>
       </c>
       <c r="P6" s="221" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q6" s="74">
         <v>3.75</v>
@@ -31359,10 +31363,10 @@
         <v>41030</v>
       </c>
       <c r="G7" s="94" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H7" s="91" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I7" s="91" t="s">
         <v>119</v>
@@ -31386,7 +31390,7 @@
         <v>6</v>
       </c>
       <c r="P7" s="221" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q7" s="74">
         <v>3.75</v>
@@ -31616,10 +31620,10 @@
         <v>40983</v>
       </c>
       <c r="G8" s="94" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H8" s="91" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I8" s="91" t="s">
         <v>119</v>
@@ -31643,7 +31647,7 @@
         <v>6</v>
       </c>
       <c r="P8" s="221" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q8" s="74">
         <v>3.75</v>
@@ -31873,10 +31877,10 @@
         <v>40984</v>
       </c>
       <c r="G9" s="94" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H9" s="91" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I9" s="91" t="s">
         <v>119</v>
@@ -31900,7 +31904,7 @@
         <v>6</v>
       </c>
       <c r="P9" s="221" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q9" s="74">
         <v>3.75</v>
@@ -32130,10 +32134,10 @@
         <v>41000</v>
       </c>
       <c r="G10" s="94" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H10" s="91" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I10" s="91" t="s">
         <v>120</v>
@@ -32157,7 +32161,7 @@
         <v>6</v>
       </c>
       <c r="P10" s="221" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q10" s="74">
         <v>3.75</v>
@@ -32389,10 +32393,10 @@
         <v>41030</v>
       </c>
       <c r="G11" s="94" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H11" s="91" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I11" s="91" t="s">
         <v>120</v>
@@ -32416,7 +32420,7 @@
         <v>6</v>
       </c>
       <c r="P11" s="221" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q11" s="74">
         <v>3.75</v>
@@ -32646,10 +32650,10 @@
         <v>40983</v>
       </c>
       <c r="G12" s="94" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H12" s="91" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I12" s="91" t="s">
         <v>120</v>
@@ -32673,7 +32677,7 @@
         <v>6</v>
       </c>
       <c r="P12" s="221" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q12" s="74">
         <v>3.75</v>
@@ -32904,10 +32908,10 @@
         <v>40984</v>
       </c>
       <c r="G13" s="94" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H13" s="91" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I13" s="128" t="s">
         <v>120</v>
@@ -32931,7 +32935,7 @@
         <v>6</v>
       </c>
       <c r="P13" s="221" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q13" s="74">
         <v>3.75</v>
@@ -33161,10 +33165,10 @@
         <v>41000</v>
       </c>
       <c r="G14" s="94" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H14" s="91" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I14" s="128" t="s">
         <v>121</v>
@@ -33188,7 +33192,7 @@
         <v>6</v>
       </c>
       <c r="P14" s="221" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q14" s="74">
         <v>3.75</v>
@@ -33419,10 +33423,10 @@
         <v>41030</v>
       </c>
       <c r="G15" s="94" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H15" s="91" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I15" s="128" t="s">
         <v>121</v>
@@ -33446,7 +33450,7 @@
         <v>6</v>
       </c>
       <c r="P15" s="221" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q15" s="7">
         <v>3.75</v>
@@ -33676,10 +33680,10 @@
         <v>40983</v>
       </c>
       <c r="G16" s="94" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H16" s="91" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I16" s="91" t="s">
         <v>121</v>
@@ -33703,7 +33707,7 @@
         <v>6</v>
       </c>
       <c r="P16" s="221" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q16" s="7">
         <v>3.75</v>
@@ -33931,10 +33935,10 @@
         <v>41000</v>
       </c>
       <c r="G17" s="94" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H17" s="91" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I17" s="91" t="s">
         <v>74</v>
@@ -33958,7 +33962,7 @@
         <v>6</v>
       </c>
       <c r="P17" s="221" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q17" s="74">
         <v>3.75</v>
@@ -34186,10 +34190,10 @@
         <v>41000</v>
       </c>
       <c r="G18" s="94" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H18" s="91" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I18" s="91" t="s">
         <v>120</v>
@@ -34213,7 +34217,7 @@
         <v>6</v>
       </c>
       <c r="P18" s="221" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q18" s="74">
         <v>3.75</v>
@@ -34441,10 +34445,10 @@
         <v>41000</v>
       </c>
       <c r="G19" s="94" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H19" s="91" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I19" s="91" t="s">
         <v>120</v>
@@ -34468,7 +34472,7 @@
         <v>6</v>
       </c>
       <c r="P19" s="221" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q19" s="74">
         <v>3.75</v>
@@ -34696,10 +34700,10 @@
         <v>42795</v>
       </c>
       <c r="G20" s="94" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H20" s="91" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I20" s="91" t="s">
         <v>121</v>
@@ -34723,7 +34727,7 @@
         <v>6</v>
       </c>
       <c r="P20" s="221" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q20" s="74">
         <v>3.375</v>
@@ -34951,10 +34955,10 @@
         <v>42795</v>
       </c>
       <c r="G21" s="94" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H21" s="91" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I21" s="91" t="s">
         <v>121</v>
@@ -34978,7 +34982,7 @@
         <v>6</v>
       </c>
       <c r="P21" s="221" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q21" s="74">
         <v>3.375</v>
@@ -35207,10 +35211,10 @@
         <v>42705</v>
       </c>
       <c r="G22" s="94" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H22" s="91" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I22" s="91" t="s">
         <v>121</v>
@@ -35234,7 +35238,7 @@
         <v>6</v>
       </c>
       <c r="P22" s="221" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q22" s="74">
         <v>4</v>
@@ -35462,10 +35466,10 @@
         <v>42675</v>
       </c>
       <c r="G23" s="94" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H23" s="91" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I23" s="91" t="s">
         <v>121</v>
@@ -35489,7 +35493,7 @@
         <v>6</v>
       </c>
       <c r="P23" s="221" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q23" s="74">
         <v>3.625</v>
@@ -35806,10 +35810,10 @@
         <v>41000</v>
       </c>
       <c r="G25" s="94" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H25" s="91" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I25" s="91" t="s">
         <v>74</v>
@@ -35833,7 +35837,7 @@
         <v>6</v>
       </c>
       <c r="P25" s="221" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q25" s="74">
         <v>3.75</v>
@@ -36065,10 +36069,10 @@
         <v>41000</v>
       </c>
       <c r="G26" s="94" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H26" s="91" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I26" s="91" t="s">
         <v>74</v>
@@ -36092,7 +36096,7 @@
         <v>6</v>
       </c>
       <c r="P26" s="221" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q26" s="74">
         <v>3.75</v>
@@ -36322,10 +36326,10 @@
         <v>41000</v>
       </c>
       <c r="G27" s="94" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H27" s="91" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I27" s="91" t="s">
         <v>74</v>
@@ -36349,7 +36353,7 @@
         <v>6</v>
       </c>
       <c r="P27" s="221" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q27" s="74">
         <v>3.75</v>
@@ -36580,10 +36584,10 @@
         <v>41000</v>
       </c>
       <c r="G28" s="94" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H28" s="91" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I28" s="91" t="s">
         <v>74</v>
@@ -36607,7 +36611,7 @@
         <v>6</v>
       </c>
       <c r="P28" s="221" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q28" s="74">
         <v>3.75</v>
@@ -36839,10 +36843,10 @@
         <v>41000</v>
       </c>
       <c r="G29" s="94" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H29" s="91" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I29" s="91" t="s">
         <v>74</v>
@@ -36866,7 +36870,7 @@
         <v>6</v>
       </c>
       <c r="P29" s="221" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q29" s="74">
         <v>3.75</v>
@@ -37094,10 +37098,10 @@
         <v>41000</v>
       </c>
       <c r="G30" s="94" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H30" s="91" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I30" s="91" t="s">
         <v>121</v>
@@ -37121,7 +37125,7 @@
         <v>6</v>
       </c>
       <c r="P30" s="221" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q30" s="74">
         <v>3.75</v>
@@ -37349,10 +37353,10 @@
         <v>41000</v>
       </c>
       <c r="G31" s="94" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H31" s="91" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I31" s="128" t="s">
         <v>121</v>
@@ -37376,7 +37380,7 @@
         <v>6</v>
       </c>
       <c r="P31" s="221" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q31" s="74">
         <v>3.75</v>
@@ -37605,10 +37609,10 @@
         <v>41000</v>
       </c>
       <c r="G32" s="94" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H32" s="91" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I32" s="128" t="s">
         <v>121</v>
@@ -37632,7 +37636,7 @@
         <v>6</v>
       </c>
       <c r="P32" s="221" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q32" s="74">
         <v>3.75</v>
@@ -37861,10 +37865,10 @@
         <v>41030</v>
       </c>
       <c r="G33" s="94" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H33" s="91" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I33" s="128" t="s">
         <v>121</v>
@@ -37888,7 +37892,7 @@
         <v>6</v>
       </c>
       <c r="P33" s="221" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q33" s="7">
         <v>3.75</v>
@@ -38186,11 +38190,11 @@
       <c r="CG34" s="137"/>
     </row>
     <row r="35" spans="1:85" s="75" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="251" t="s">
+      <c r="A35" s="252" t="s">
         <v>223</v>
       </c>
-      <c r="B35" s="249"/>
-      <c r="C35" s="250"/>
+      <c r="B35" s="250"/>
+      <c r="C35" s="251"/>
       <c r="D35" s="72"/>
       <c r="E35" s="72"/>
       <c r="F35" s="72"/>
@@ -38294,10 +38298,10 @@
         <v>41030</v>
       </c>
       <c r="G36" s="94" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H36" s="91" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I36" s="91" t="s">
         <v>74</v>
@@ -38321,7 +38325,7 @@
         <v>6</v>
       </c>
       <c r="P36" s="94" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q36" s="74">
         <v>3.75</v>
@@ -38551,10 +38555,10 @@
         <v>40983</v>
       </c>
       <c r="G37" s="94" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H37" s="91" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I37" s="91" t="s">
         <v>74</v>
@@ -38578,7 +38582,7 @@
         <v>6</v>
       </c>
       <c r="P37" s="94" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q37" s="74">
         <v>3.75</v>
@@ -38808,10 +38812,10 @@
         <v>40983</v>
       </c>
       <c r="G38" s="94" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H38" s="91" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I38" s="91" t="s">
         <v>74</v>
@@ -38835,7 +38839,7 @@
         <v>6</v>
       </c>
       <c r="P38" s="94" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q38" s="74">
         <v>3.75</v>
@@ -39065,10 +39069,10 @@
         <v>41030</v>
       </c>
       <c r="G39" s="94" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H39" s="91" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I39" s="94" t="s">
         <v>120</v>
@@ -39092,7 +39096,7 @@
         <v>6</v>
       </c>
       <c r="P39" s="94" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q39" s="74">
         <v>3.75</v>
@@ -39322,10 +39326,10 @@
         <v>40983</v>
       </c>
       <c r="G40" s="94" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H40" s="91" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I40" s="94" t="s">
         <v>120</v>
@@ -39349,7 +39353,7 @@
         <v>6</v>
       </c>
       <c r="P40" s="94" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q40" s="74">
         <v>3.75</v>
@@ -39579,10 +39583,10 @@
         <v>40983</v>
       </c>
       <c r="G41" s="94" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H41" s="91" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I41" s="94" t="s">
         <v>120</v>
@@ -39606,7 +39610,7 @@
         <v>6</v>
       </c>
       <c r="P41" s="94" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q41" s="74">
         <v>3.75</v>
@@ -39836,10 +39840,10 @@
         <v>41030</v>
       </c>
       <c r="G42" s="94" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H42" s="91" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I42" s="92" t="s">
         <v>121</v>
@@ -39863,7 +39867,7 @@
         <v>6</v>
       </c>
       <c r="P42" s="94" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q42" s="74">
         <v>3.75</v>
@@ -40093,10 +40097,10 @@
         <v>40983</v>
       </c>
       <c r="G43" s="94" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H43" s="91" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I43" s="92" t="s">
         <v>121</v>
@@ -40120,7 +40124,7 @@
         <v>6</v>
       </c>
       <c r="P43" s="94" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q43" s="74">
         <v>3.75</v>
@@ -40346,10 +40350,10 @@
         <v>41000</v>
       </c>
       <c r="G44" s="211" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="H44" s="211" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I44" s="211" t="s">
         <v>121</v>
@@ -40371,7 +40375,7 @@
         <v>6</v>
       </c>
       <c r="P44" s="211" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q44" s="90">
         <v>3.75</v>
@@ -40531,10 +40535,10 @@
         <v>41000</v>
       </c>
       <c r="G45" s="211" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="H45" s="211" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I45" s="211" t="s">
         <v>121</v>
@@ -40556,7 +40560,7 @@
         <v>6</v>
       </c>
       <c r="P45" s="211" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q45" s="90">
         <v>3.75</v>
@@ -40698,10 +40702,10 @@
         <v>41000</v>
       </c>
       <c r="G46" s="211" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="H46" s="211" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I46" s="211" t="s">
         <v>121</v>
@@ -40723,7 +40727,7 @@
         <v>6</v>
       </c>
       <c r="P46" s="211" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q46" s="90">
         <v>3.75</v>
@@ -40865,10 +40869,10 @@
         <v>41000</v>
       </c>
       <c r="G47" s="211" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="H47" s="211" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I47" s="211" t="s">
         <v>121</v>
@@ -40890,7 +40894,7 @@
         <v>6</v>
       </c>
       <c r="P47" s="211" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q47" s="90">
         <v>3.75</v>
@@ -41032,10 +41036,10 @@
         <v>41000</v>
       </c>
       <c r="G48" s="211" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="H48" s="211" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I48" s="211" t="s">
         <v>121</v>
@@ -41057,7 +41061,7 @@
         <v>6</v>
       </c>
       <c r="P48" s="211" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q48" s="90">
         <v>3.75</v>
@@ -41199,10 +41203,10 @@
         <v>41000</v>
       </c>
       <c r="G49" s="211" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="H49" s="211" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I49" s="211" t="s">
         <v>121</v>
@@ -41224,7 +41228,7 @@
         <v>6</v>
       </c>
       <c r="P49" s="211" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q49" s="90">
         <v>3.75</v>
@@ -41366,10 +41370,10 @@
         <v>41000</v>
       </c>
       <c r="G50" s="211" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="H50" s="211" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I50" s="211" t="s">
         <v>121</v>
@@ -41391,7 +41395,7 @@
         <v>6</v>
       </c>
       <c r="P50" s="211" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q50" s="90">
         <v>3.75</v>
@@ -41533,10 +41537,10 @@
         <v>41000</v>
       </c>
       <c r="G51" s="211" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="H51" s="211" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I51" s="211" t="s">
         <v>121</v>
@@ -41558,7 +41562,7 @@
         <v>6</v>
       </c>
       <c r="P51" s="211" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q51" s="90">
         <v>3.75</v>
@@ -41700,10 +41704,10 @@
         <v>41000</v>
       </c>
       <c r="G52" s="211" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="H52" s="211" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I52" s="211" t="s">
         <v>121</v>
@@ -41725,7 +41729,7 @@
         <v>6</v>
       </c>
       <c r="P52" s="211" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q52" s="90">
         <v>3.75</v>
@@ -41867,10 +41871,10 @@
         <v>41000</v>
       </c>
       <c r="G53" s="211" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="H53" s="211" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I53" s="211" t="s">
         <v>121</v>
@@ -41892,7 +41896,7 @@
         <v>6</v>
       </c>
       <c r="P53" s="211" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q53" s="90">
         <v>3.75</v>
@@ -42106,11 +42110,11 @@
       <c r="CG54" s="140"/>
     </row>
     <row r="55" spans="1:85" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="248" t="s">
+      <c r="A55" s="249" t="s">
         <v>224</v>
       </c>
-      <c r="B55" s="249"/>
-      <c r="C55" s="250"/>
+      <c r="B55" s="250"/>
+      <c r="C55" s="251"/>
       <c r="D55" s="72"/>
       <c r="E55" s="72"/>
       <c r="F55" s="72"/>
@@ -42214,10 +42218,10 @@
         <v>41030</v>
       </c>
       <c r="G56" s="94" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H56" s="91" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I56" s="91" t="s">
         <v>74</v>
@@ -42241,7 +42245,7 @@
         <v>6</v>
       </c>
       <c r="P56" s="94" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q56" s="74">
         <v>3.75</v>
@@ -42469,10 +42473,10 @@
         <v>40983</v>
       </c>
       <c r="G57" s="94" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H57" s="91" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I57" s="91" t="s">
         <v>74</v>
@@ -42496,7 +42500,7 @@
         <v>6</v>
       </c>
       <c r="P57" s="94" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q57" s="74">
         <v>3.75</v>
@@ -42726,10 +42730,10 @@
         <v>40983</v>
       </c>
       <c r="G58" s="94" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H58" s="91" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I58" s="91" t="s">
         <v>74</v>
@@ -42753,7 +42757,7 @@
         <v>6</v>
       </c>
       <c r="P58" s="94" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q58" s="74">
         <v>3.75</v>
@@ -42981,10 +42985,10 @@
         <v>41030</v>
       </c>
       <c r="G59" s="94" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H59" s="91" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I59" s="94" t="s">
         <v>120</v>
@@ -43008,7 +43012,7 @@
         <v>6</v>
       </c>
       <c r="P59" s="94" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q59" s="74">
         <v>3.75</v>
@@ -43236,10 +43240,10 @@
         <v>40983</v>
       </c>
       <c r="G60" s="94" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H60" s="91" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I60" s="94" t="s">
         <v>120</v>
@@ -43263,7 +43267,7 @@
         <v>6</v>
       </c>
       <c r="P60" s="94" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q60" s="74">
         <v>3.75</v>
@@ -43493,10 +43497,10 @@
         <v>40983</v>
       </c>
       <c r="G61" s="94" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H61" s="91" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I61" s="94" t="s">
         <v>120</v>
@@ -43520,7 +43524,7 @@
         <v>6</v>
       </c>
       <c r="P61" s="94" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q61" s="74">
         <v>3.75</v>
@@ -43748,10 +43752,10 @@
         <v>41030</v>
       </c>
       <c r="G62" s="94" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H62" s="91" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I62" s="92" t="s">
         <v>121</v>
@@ -43775,7 +43779,7 @@
         <v>6</v>
       </c>
       <c r="P62" s="94" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q62" s="74">
         <v>3.75</v>
@@ -44003,10 +44007,10 @@
         <v>40983</v>
       </c>
       <c r="G63" s="94" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H63" s="91" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I63" s="92" t="s">
         <v>121</v>
@@ -44030,7 +44034,7 @@
         <v>6</v>
       </c>
       <c r="P63" s="94" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q63" s="74">
         <v>3.75</v>
@@ -44254,10 +44258,10 @@
         <v>41000</v>
       </c>
       <c r="G64" s="211" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="H64" s="211" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I64" s="211" t="s">
         <v>121</v>
@@ -44279,7 +44283,7 @@
         <v>6</v>
       </c>
       <c r="P64" s="211" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q64" s="90">
         <v>3.75</v>
@@ -44439,10 +44443,10 @@
         <v>41000</v>
       </c>
       <c r="G65" s="211" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="H65" s="211" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I65" s="211" t="s">
         <v>121</v>
@@ -44464,7 +44468,7 @@
         <v>6</v>
       </c>
       <c r="P65" s="211" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q65" s="90">
         <v>3.75</v>
@@ -44606,10 +44610,10 @@
         <v>41000</v>
       </c>
       <c r="G66" s="211" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="H66" s="211" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I66" s="211" t="s">
         <v>121</v>
@@ -44631,7 +44635,7 @@
         <v>6</v>
       </c>
       <c r="P66" s="211" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q66" s="90">
         <v>3.75</v>
@@ -44773,10 +44777,10 @@
         <v>41000</v>
       </c>
       <c r="G67" s="211" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="H67" s="211" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I67" s="211" t="s">
         <v>121</v>
@@ -44798,7 +44802,7 @@
         <v>6</v>
       </c>
       <c r="P67" s="211" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q67" s="90">
         <v>3.75</v>
@@ -44940,10 +44944,10 @@
         <v>41000</v>
       </c>
       <c r="G68" s="211" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="H68" s="211" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I68" s="211" t="s">
         <v>121</v>
@@ -44965,7 +44969,7 @@
         <v>6</v>
       </c>
       <c r="P68" s="211" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q68" s="90">
         <v>3.75</v>
@@ -45107,10 +45111,10 @@
         <v>41000</v>
       </c>
       <c r="G69" s="211" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="H69" s="211" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I69" s="211" t="s">
         <v>121</v>
@@ -45132,7 +45136,7 @@
         <v>6</v>
       </c>
       <c r="P69" s="211" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q69" s="90">
         <v>3.75</v>
@@ -45274,10 +45278,10 @@
         <v>41000</v>
       </c>
       <c r="G70" s="211" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="H70" s="211" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I70" s="211" t="s">
         <v>121</v>
@@ -45299,7 +45303,7 @@
         <v>6</v>
       </c>
       <c r="P70" s="211" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q70" s="90">
         <v>3.75</v>
@@ -45441,10 +45445,10 @@
         <v>41000</v>
       </c>
       <c r="G71" s="211" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="H71" s="211" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I71" s="211" t="s">
         <v>121</v>
@@ -45466,7 +45470,7 @@
         <v>6</v>
       </c>
       <c r="P71" s="211" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q71" s="90">
         <v>3.75</v>
@@ -45608,10 +45612,10 @@
         <v>41000</v>
       </c>
       <c r="G72" s="211" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="H72" s="211" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I72" s="211" t="s">
         <v>121</v>
@@ -45633,7 +45637,7 @@
         <v>6</v>
       </c>
       <c r="P72" s="211" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q72" s="90">
         <v>3.75</v>
@@ -45775,10 +45779,10 @@
         <v>41000</v>
       </c>
       <c r="G73" s="211" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="H73" s="211" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I73" s="211" t="s">
         <v>121</v>
@@ -45800,7 +45804,7 @@
         <v>6</v>
       </c>
       <c r="P73" s="211" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q73" s="90">
         <v>3.75</v>
@@ -46014,11 +46018,11 @@
       <c r="CG74" s="140"/>
     </row>
     <row r="75" spans="1:85" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="248" t="s">
+      <c r="A75" s="249" t="s">
         <v>225</v>
       </c>
-      <c r="B75" s="249"/>
-      <c r="C75" s="250"/>
+      <c r="B75" s="250"/>
+      <c r="C75" s="251"/>
       <c r="D75" s="72"/>
       <c r="E75" s="72"/>
       <c r="F75" s="72"/>
@@ -46122,10 +46126,10 @@
         <v>41030</v>
       </c>
       <c r="G76" s="94" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H76" s="91" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I76" s="91" t="s">
         <v>74</v>
@@ -46149,7 +46153,7 @@
         <v>6</v>
       </c>
       <c r="P76" s="94" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q76" s="74">
         <v>3.75</v>
@@ -46379,10 +46383,10 @@
         <v>40983</v>
       </c>
       <c r="G77" s="94" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H77" s="91" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I77" s="91" t="s">
         <v>74</v>
@@ -46406,7 +46410,7 @@
         <v>6</v>
       </c>
       <c r="P77" s="94" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q77" s="74">
         <v>3.75</v>
@@ -46636,10 +46640,10 @@
         <v>40983</v>
       </c>
       <c r="G78" s="94" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H78" s="91" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I78" s="91" t="s">
         <v>74</v>
@@ -46663,7 +46667,7 @@
         <v>6</v>
       </c>
       <c r="P78" s="94" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q78" s="74">
         <v>3.75</v>
@@ -46893,10 +46897,10 @@
         <v>41030</v>
       </c>
       <c r="G79" s="94" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H79" s="91" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I79" s="94" t="s">
         <v>120</v>
@@ -46920,7 +46924,7 @@
         <v>6</v>
       </c>
       <c r="P79" s="94" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q79" s="74">
         <v>3.75</v>
@@ -47150,10 +47154,10 @@
         <v>40983</v>
       </c>
       <c r="G80" s="94" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H80" s="91" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I80" s="94" t="s">
         <v>120</v>
@@ -47177,7 +47181,7 @@
         <v>6</v>
       </c>
       <c r="P80" s="94" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q80" s="74">
         <v>3.75</v>
@@ -47407,10 +47411,10 @@
         <v>40983</v>
       </c>
       <c r="G81" s="94" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H81" s="91" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I81" s="94" t="s">
         <v>120</v>
@@ -47434,7 +47438,7 @@
         <v>6</v>
       </c>
       <c r="P81" s="94" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q81" s="74">
         <v>3.75</v>
@@ -47664,10 +47668,10 @@
         <v>41030</v>
       </c>
       <c r="G82" s="94" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H82" s="91" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I82" s="92" t="s">
         <v>121</v>
@@ -47691,7 +47695,7 @@
         <v>6</v>
       </c>
       <c r="P82" s="94" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q82" s="74">
         <v>3.75</v>
@@ -47921,10 +47925,10 @@
         <v>40983</v>
       </c>
       <c r="G83" s="94" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H83" s="91" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I83" s="92" t="s">
         <v>121</v>
@@ -47948,7 +47952,7 @@
         <v>6</v>
       </c>
       <c r="P83" s="94" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q83" s="74">
         <v>3.75</v>
@@ -48174,10 +48178,10 @@
         <v>41000</v>
       </c>
       <c r="G84" s="211" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="H84" s="211" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I84" s="211" t="s">
         <v>121</v>
@@ -48199,7 +48203,7 @@
         <v>6</v>
       </c>
       <c r="P84" s="211" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q84" s="90">
         <v>3.75</v>
@@ -48359,10 +48363,10 @@
         <v>41000</v>
       </c>
       <c r="G85" s="211" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="H85" s="211" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I85" s="211" t="s">
         <v>121</v>
@@ -48384,7 +48388,7 @@
         <v>6</v>
       </c>
       <c r="P85" s="211" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q85" s="90">
         <v>3.75</v>
@@ -48526,10 +48530,10 @@
         <v>41000</v>
       </c>
       <c r="G86" s="211" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="H86" s="211" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I86" s="211" t="s">
         <v>121</v>
@@ -48551,7 +48555,7 @@
         <v>6</v>
       </c>
       <c r="P86" s="211" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q86" s="90">
         <v>3.75</v>
@@ -48693,10 +48697,10 @@
         <v>41000</v>
       </c>
       <c r="G87" s="211" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="H87" s="211" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I87" s="211" t="s">
         <v>121</v>
@@ -48718,7 +48722,7 @@
         <v>6</v>
       </c>
       <c r="P87" s="211" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q87" s="90">
         <v>3.75</v>
@@ -48860,10 +48864,10 @@
         <v>41000</v>
       </c>
       <c r="G88" s="211" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="H88" s="211" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I88" s="211" t="s">
         <v>121</v>
@@ -48885,7 +48889,7 @@
         <v>6</v>
       </c>
       <c r="P88" s="211" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q88" s="90">
         <v>3.75</v>
@@ -49027,10 +49031,10 @@
         <v>41000</v>
       </c>
       <c r="G89" s="211" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="H89" s="211" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I89" s="211" t="s">
         <v>121</v>
@@ -49052,7 +49056,7 @@
         <v>6</v>
       </c>
       <c r="P89" s="211" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q89" s="90">
         <v>3.75</v>
@@ -49194,10 +49198,10 @@
         <v>41000</v>
       </c>
       <c r="G90" s="211" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="H90" s="211" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I90" s="211" t="s">
         <v>121</v>
@@ -49219,7 +49223,7 @@
         <v>6</v>
       </c>
       <c r="P90" s="211" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q90" s="90">
         <v>3.75</v>
@@ -49361,10 +49365,10 @@
         <v>41000</v>
       </c>
       <c r="G91" s="211" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="H91" s="211" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I91" s="211" t="s">
         <v>121</v>
@@ -49386,7 +49390,7 @@
         <v>6</v>
       </c>
       <c r="P91" s="211" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q91" s="90">
         <v>3.75</v>
@@ -49528,10 +49532,10 @@
         <v>41000</v>
       </c>
       <c r="G92" s="211" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="H92" s="211" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I92" s="211" t="s">
         <v>121</v>
@@ -49553,7 +49557,7 @@
         <v>6</v>
       </c>
       <c r="P92" s="211" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q92" s="90">
         <v>3.75</v>
@@ -49695,10 +49699,10 @@
         <v>41000</v>
       </c>
       <c r="G93" s="211" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="H93" s="211" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I93" s="211" t="s">
         <v>121</v>
@@ -49720,7 +49724,7 @@
         <v>6</v>
       </c>
       <c r="P93" s="211" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q93" s="90">
         <v>3.75</v>
@@ -49934,14 +49938,14 @@
       <c r="CG94" s="140"/>
     </row>
     <row r="95" spans="1:85" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="248" t="s">
+      <c r="A95" s="249" t="s">
         <v>226</v>
       </c>
-      <c r="B95" s="249"/>
-      <c r="C95" s="250"/>
-      <c r="D95" s="94"/>
-      <c r="E95" s="94"/>
-      <c r="F95" s="94"/>
+      <c r="B95" s="250"/>
+      <c r="C95" s="251"/>
+      <c r="D95" s="72"/>
+      <c r="E95" s="72"/>
+      <c r="F95" s="72"/>
       <c r="G95" s="94"/>
       <c r="H95" s="94"/>
       <c r="I95" s="94"/>
@@ -50032,14 +50036,20 @@
       <c r="C96" s="117" t="s">
         <v>255</v>
       </c>
-      <c r="D96" s="91"/>
-      <c r="E96" s="91"/>
-      <c r="F96" s="91"/>
+      <c r="D96" s="72">
+        <v>40964</v>
+      </c>
+      <c r="E96" s="72">
+        <v>40964</v>
+      </c>
+      <c r="F96" s="72">
+        <v>41030</v>
+      </c>
       <c r="G96" s="94" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H96" s="91" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I96" s="91" t="s">
         <v>74</v>
@@ -50063,7 +50073,7 @@
         <v>6</v>
       </c>
       <c r="P96" s="94" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q96" s="74">
         <v>3.75</v>
@@ -50283,14 +50293,20 @@
       <c r="C97" s="117" t="s">
         <v>256</v>
       </c>
-      <c r="D97" s="91"/>
-      <c r="E97" s="91"/>
-      <c r="F97" s="91"/>
+      <c r="D97" s="72">
+        <v>40969</v>
+      </c>
+      <c r="E97" s="72">
+        <v>40969</v>
+      </c>
+      <c r="F97" s="72">
+        <v>40983</v>
+      </c>
       <c r="G97" s="94" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H97" s="91" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I97" s="91" t="s">
         <v>74</v>
@@ -50314,7 +50330,7 @@
         <v>6</v>
       </c>
       <c r="P97" s="94" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q97" s="74">
         <v>3.75</v>
@@ -50534,14 +50550,20 @@
       <c r="C98" s="117" t="s">
         <v>270</v>
       </c>
-      <c r="D98" s="91"/>
-      <c r="E98" s="91"/>
-      <c r="F98" s="91"/>
+      <c r="D98" s="72">
+        <v>40964</v>
+      </c>
+      <c r="E98" s="72">
+        <v>40964</v>
+      </c>
+      <c r="F98" s="72">
+        <v>40983</v>
+      </c>
       <c r="G98" s="94" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H98" s="91" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I98" s="91" t="s">
         <v>74</v>
@@ -50565,7 +50587,7 @@
         <v>6</v>
       </c>
       <c r="P98" s="94" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q98" s="74">
         <v>3.75</v>
@@ -50785,14 +50807,20 @@
       <c r="C99" s="117" t="s">
         <v>257</v>
       </c>
-      <c r="D99" s="91"/>
-      <c r="E99" s="91"/>
-      <c r="F99" s="91"/>
+      <c r="D99" s="72">
+        <v>40964</v>
+      </c>
+      <c r="E99" s="72">
+        <v>40964</v>
+      </c>
+      <c r="F99" s="72">
+        <v>41030</v>
+      </c>
       <c r="G99" s="94" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H99" s="91" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I99" s="94" t="s">
         <v>120</v>
@@ -50816,7 +50844,7 @@
         <v>6</v>
       </c>
       <c r="P99" s="94" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q99" s="74">
         <v>3.75</v>
@@ -51036,14 +51064,20 @@
       <c r="C100" s="117" t="s">
         <v>288</v>
       </c>
-      <c r="D100" s="91"/>
-      <c r="E100" s="91"/>
-      <c r="F100" s="91"/>
+      <c r="D100" s="72">
+        <v>40969</v>
+      </c>
+      <c r="E100" s="72">
+        <v>40969</v>
+      </c>
+      <c r="F100" s="72">
+        <v>40983</v>
+      </c>
       <c r="G100" s="94" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H100" s="91" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I100" s="94" t="s">
         <v>120</v>
@@ -51067,7 +51101,7 @@
         <v>6</v>
       </c>
       <c r="P100" s="94" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q100" s="74">
         <v>3.75</v>
@@ -51287,14 +51321,20 @@
       <c r="C101" s="117" t="s">
         <v>268</v>
       </c>
-      <c r="D101" s="91"/>
-      <c r="E101" s="91"/>
-      <c r="F101" s="91"/>
+      <c r="D101" s="72">
+        <v>40964</v>
+      </c>
+      <c r="E101" s="72">
+        <v>40964</v>
+      </c>
+      <c r="F101" s="72">
+        <v>40983</v>
+      </c>
       <c r="G101" s="94" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H101" s="91" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I101" s="94" t="s">
         <v>120</v>
@@ -51318,7 +51358,7 @@
         <v>6</v>
       </c>
       <c r="P101" s="94" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q101" s="74">
         <v>3.75</v>
@@ -51538,14 +51578,20 @@
       <c r="C102" s="117" t="s">
         <v>289</v>
       </c>
-      <c r="D102" s="91"/>
-      <c r="E102" s="91"/>
-      <c r="F102" s="91"/>
+      <c r="D102" s="72">
+        <v>40964</v>
+      </c>
+      <c r="E102" s="72">
+        <v>40964</v>
+      </c>
+      <c r="F102" s="72">
+        <v>41030</v>
+      </c>
       <c r="G102" s="94" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H102" s="91" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I102" s="92" t="s">
         <v>121</v>
@@ -51569,7 +51615,7 @@
         <v>6</v>
       </c>
       <c r="P102" s="94" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q102" s="74">
         <v>3.75</v>
@@ -51789,14 +51835,20 @@
       <c r="C103" s="117" t="s">
         <v>269</v>
       </c>
-      <c r="D103" s="91"/>
-      <c r="E103" s="91"/>
-      <c r="F103" s="91"/>
+      <c r="D103" s="72">
+        <v>40964</v>
+      </c>
+      <c r="E103" s="72">
+        <v>40964</v>
+      </c>
+      <c r="F103" s="72">
+        <v>40983</v>
+      </c>
       <c r="G103" s="94" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H103" s="91" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I103" s="92" t="s">
         <v>121</v>
@@ -51820,7 +51872,7 @@
         <v>6</v>
       </c>
       <c r="P103" s="94" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q103" s="74">
         <v>3.75</v>
@@ -52036,14 +52088,20 @@
       </c>
       <c r="B104" s="203"/>
       <c r="C104" s="203"/>
-      <c r="D104" s="204"/>
-      <c r="E104" s="204"/>
-      <c r="F104" s="204"/>
+      <c r="D104" s="246">
+        <v>40969</v>
+      </c>
+      <c r="E104" s="246">
+        <v>40969</v>
+      </c>
+      <c r="F104" s="246">
+        <v>41000</v>
+      </c>
       <c r="G104" s="211" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="H104" s="204" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I104" s="204" t="s">
         <v>121</v>
@@ -52065,7 +52123,7 @@
         <v>6</v>
       </c>
       <c r="P104" s="204" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q104" s="205">
         <v>3.75</v>
@@ -52215,14 +52273,20 @@
       </c>
       <c r="B105" s="203"/>
       <c r="C105" s="203"/>
-      <c r="D105" s="204"/>
-      <c r="E105" s="204"/>
-      <c r="F105" s="204"/>
+      <c r="D105" s="246">
+        <v>40969</v>
+      </c>
+      <c r="E105" s="246">
+        <v>40969</v>
+      </c>
+      <c r="F105" s="246">
+        <v>41000</v>
+      </c>
       <c r="G105" s="211" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="H105" s="204" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I105" s="204" t="s">
         <v>121</v>
@@ -52244,7 +52308,7 @@
         <v>6</v>
       </c>
       <c r="P105" s="204" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q105" s="205">
         <v>3.75</v>
@@ -52376,14 +52440,20 @@
       </c>
       <c r="B106" s="203"/>
       <c r="C106" s="203"/>
-      <c r="D106" s="204"/>
-      <c r="E106" s="204"/>
-      <c r="F106" s="204"/>
+      <c r="D106" s="246">
+        <v>40969</v>
+      </c>
+      <c r="E106" s="246">
+        <v>40969</v>
+      </c>
+      <c r="F106" s="246">
+        <v>41000</v>
+      </c>
       <c r="G106" s="211" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="H106" s="204" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I106" s="204" t="s">
         <v>121</v>
@@ -52405,7 +52475,7 @@
         <v>6</v>
       </c>
       <c r="P106" s="204" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q106" s="205">
         <v>3.75</v>
@@ -52537,14 +52607,20 @@
       </c>
       <c r="B107" s="203"/>
       <c r="C107" s="203"/>
-      <c r="D107" s="204"/>
-      <c r="E107" s="204"/>
-      <c r="F107" s="204"/>
+      <c r="D107" s="246">
+        <v>40969</v>
+      </c>
+      <c r="E107" s="246">
+        <v>40969</v>
+      </c>
+      <c r="F107" s="246">
+        <v>41000</v>
+      </c>
       <c r="G107" s="211" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="H107" s="204" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I107" s="204" t="s">
         <v>121</v>
@@ -52566,7 +52642,7 @@
         <v>6</v>
       </c>
       <c r="P107" s="204" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q107" s="205">
         <v>3.75</v>
@@ -52698,14 +52774,20 @@
       </c>
       <c r="B108" s="203"/>
       <c r="C108" s="203"/>
-      <c r="D108" s="204"/>
-      <c r="E108" s="204"/>
-      <c r="F108" s="204"/>
+      <c r="D108" s="246">
+        <v>40969</v>
+      </c>
+      <c r="E108" s="246">
+        <v>40969</v>
+      </c>
+      <c r="F108" s="246">
+        <v>41000</v>
+      </c>
       <c r="G108" s="211" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="H108" s="204" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I108" s="204" t="s">
         <v>121</v>
@@ -52727,7 +52809,7 @@
         <v>6</v>
       </c>
       <c r="P108" s="204" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q108" s="205">
         <v>3.75</v>
@@ -52859,14 +52941,20 @@
       </c>
       <c r="B109" s="203"/>
       <c r="C109" s="203"/>
-      <c r="D109" s="204"/>
-      <c r="E109" s="204"/>
-      <c r="F109" s="204"/>
+      <c r="D109" s="246">
+        <v>40969</v>
+      </c>
+      <c r="E109" s="246">
+        <v>40969</v>
+      </c>
+      <c r="F109" s="246">
+        <v>41000</v>
+      </c>
       <c r="G109" s="211" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="H109" s="204" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I109" s="204" t="s">
         <v>121</v>
@@ -52888,7 +52976,7 @@
         <v>6</v>
       </c>
       <c r="P109" s="204" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q109" s="205">
         <v>3.75</v>
@@ -53020,14 +53108,20 @@
       </c>
       <c r="B110" s="203"/>
       <c r="C110" s="203"/>
-      <c r="D110" s="204"/>
-      <c r="E110" s="204"/>
-      <c r="F110" s="204"/>
+      <c r="D110" s="246">
+        <v>40969</v>
+      </c>
+      <c r="E110" s="246">
+        <v>40969</v>
+      </c>
+      <c r="F110" s="246">
+        <v>41000</v>
+      </c>
       <c r="G110" s="211" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="H110" s="204" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I110" s="204" t="s">
         <v>121</v>
@@ -53049,7 +53143,7 @@
         <v>6</v>
       </c>
       <c r="P110" s="204" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q110" s="205">
         <v>3.75</v>
@@ -53181,14 +53275,20 @@
       </c>
       <c r="B111" s="203"/>
       <c r="C111" s="203"/>
-      <c r="D111" s="204"/>
-      <c r="E111" s="204"/>
-      <c r="F111" s="204"/>
+      <c r="D111" s="246">
+        <v>40969</v>
+      </c>
+      <c r="E111" s="246">
+        <v>40969</v>
+      </c>
+      <c r="F111" s="246">
+        <v>41000</v>
+      </c>
       <c r="G111" s="211" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="H111" s="204" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I111" s="204" t="s">
         <v>121</v>
@@ -53210,7 +53310,7 @@
         <v>6</v>
       </c>
       <c r="P111" s="204" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q111" s="205">
         <v>3.75</v>
@@ -53342,14 +53442,20 @@
       </c>
       <c r="B112" s="203"/>
       <c r="C112" s="203"/>
-      <c r="D112" s="204"/>
-      <c r="E112" s="204"/>
-      <c r="F112" s="204"/>
+      <c r="D112" s="246">
+        <v>40969</v>
+      </c>
+      <c r="E112" s="246">
+        <v>40969</v>
+      </c>
+      <c r="F112" s="246">
+        <v>41000</v>
+      </c>
       <c r="G112" s="211" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="H112" s="204" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I112" s="204" t="s">
         <v>121</v>
@@ -53371,7 +53477,7 @@
         <v>6</v>
       </c>
       <c r="P112" s="204" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q112" s="205">
         <v>3.75</v>
@@ -53503,14 +53609,20 @@
       </c>
       <c r="B113" s="203"/>
       <c r="C113" s="203"/>
-      <c r="D113" s="204"/>
-      <c r="E113" s="204"/>
-      <c r="F113" s="204"/>
+      <c r="D113" s="246">
+        <v>40969</v>
+      </c>
+      <c r="E113" s="246">
+        <v>40969</v>
+      </c>
+      <c r="F113" s="246">
+        <v>41000</v>
+      </c>
       <c r="G113" s="211" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="H113" s="204" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I113" s="204" t="s">
         <v>121</v>
@@ -53532,7 +53644,7 @@
         <v>6</v>
       </c>
       <c r="P113" s="204" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q113" s="205">
         <v>3.75</v>
@@ -53746,14 +53858,14 @@
       <c r="CG114" s="140"/>
     </row>
     <row r="115" spans="1:85" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="248" t="s">
+      <c r="A115" s="249" t="s">
         <v>227</v>
       </c>
-      <c r="B115" s="249"/>
-      <c r="C115" s="250"/>
-      <c r="D115" s="94"/>
-      <c r="E115" s="94"/>
-      <c r="F115" s="94"/>
+      <c r="B115" s="250"/>
+      <c r="C115" s="251"/>
+      <c r="D115" s="72"/>
+      <c r="E115" s="72"/>
+      <c r="F115" s="72"/>
       <c r="G115" s="64"/>
       <c r="H115" s="94"/>
       <c r="I115" s="64"/>
@@ -53840,14 +53952,14 @@
       </c>
       <c r="B116" s="203"/>
       <c r="C116" s="203"/>
-      <c r="D116" s="204"/>
-      <c r="E116" s="204"/>
-      <c r="F116" s="204"/>
+      <c r="D116" s="246"/>
+      <c r="E116" s="246"/>
+      <c r="F116" s="246"/>
       <c r="G116" s="204" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H116" s="204" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I116" s="204" t="s">
         <v>74</v>
@@ -53865,7 +53977,7 @@
         <v>6</v>
       </c>
       <c r="P116" s="204" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q116" s="205"/>
       <c r="R116" s="205"/>
@@ -53949,14 +54061,14 @@
       </c>
       <c r="B117" s="203"/>
       <c r="C117" s="203"/>
-      <c r="D117" s="204"/>
-      <c r="E117" s="204"/>
-      <c r="F117" s="204"/>
+      <c r="D117" s="246"/>
+      <c r="E117" s="246"/>
+      <c r="F117" s="246"/>
       <c r="G117" s="204" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H117" s="204" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I117" s="204" t="s">
         <v>74</v>
@@ -53974,7 +54086,7 @@
         <v>6</v>
       </c>
       <c r="P117" s="204" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q117" s="205"/>
       <c r="R117" s="205"/>
@@ -54058,14 +54170,14 @@
       </c>
       <c r="B118" s="203"/>
       <c r="C118" s="203"/>
-      <c r="D118" s="204"/>
-      <c r="E118" s="204"/>
-      <c r="F118" s="204"/>
+      <c r="D118" s="246"/>
+      <c r="E118" s="246"/>
+      <c r="F118" s="246"/>
       <c r="G118" s="204" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H118" s="204" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I118" s="204" t="s">
         <v>74</v>
@@ -54083,7 +54195,7 @@
         <v>6</v>
       </c>
       <c r="P118" s="204" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q118" s="205"/>
       <c r="R118" s="205"/>
@@ -54167,14 +54279,14 @@
       </c>
       <c r="B119" s="203"/>
       <c r="C119" s="203"/>
-      <c r="D119" s="204"/>
-      <c r="E119" s="204"/>
-      <c r="F119" s="204"/>
+      <c r="D119" s="246"/>
+      <c r="E119" s="246"/>
+      <c r="F119" s="246"/>
       <c r="G119" s="204" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H119" s="204" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I119" s="204" t="s">
         <v>120</v>
@@ -54192,7 +54304,7 @@
         <v>6</v>
       </c>
       <c r="P119" s="204" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q119" s="205"/>
       <c r="R119" s="205"/>
@@ -54276,14 +54388,14 @@
       </c>
       <c r="B120" s="203"/>
       <c r="C120" s="203"/>
-      <c r="D120" s="204"/>
-      <c r="E120" s="204"/>
-      <c r="F120" s="204"/>
+      <c r="D120" s="246"/>
+      <c r="E120" s="246"/>
+      <c r="F120" s="246"/>
       <c r="G120" s="204" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H120" s="204" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I120" s="204" t="s">
         <v>120</v>
@@ -54301,7 +54413,7 @@
         <v>6</v>
       </c>
       <c r="P120" s="204" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q120" s="205"/>
       <c r="R120" s="205"/>
@@ -54385,14 +54497,14 @@
       </c>
       <c r="B121" s="203"/>
       <c r="C121" s="203"/>
-      <c r="D121" s="204"/>
-      <c r="E121" s="204"/>
-      <c r="F121" s="204"/>
+      <c r="D121" s="246"/>
+      <c r="E121" s="246"/>
+      <c r="F121" s="246"/>
       <c r="G121" s="204" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H121" s="204" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I121" s="204" t="s">
         <v>120</v>
@@ -54410,7 +54522,7 @@
         <v>6</v>
       </c>
       <c r="P121" s="204" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q121" s="205"/>
       <c r="R121" s="205"/>
@@ -54494,14 +54606,14 @@
       </c>
       <c r="B122" s="203"/>
       <c r="C122" s="203"/>
-      <c r="D122" s="204"/>
-      <c r="E122" s="204"/>
-      <c r="F122" s="204"/>
+      <c r="D122" s="246"/>
+      <c r="E122" s="246"/>
+      <c r="F122" s="246"/>
       <c r="G122" s="204" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H122" s="204" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I122" s="204" t="s">
         <v>121</v>
@@ -54519,7 +54631,7 @@
         <v>6</v>
       </c>
       <c r="P122" s="204" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q122" s="205"/>
       <c r="R122" s="205"/>
@@ -54603,14 +54715,14 @@
       </c>
       <c r="B123" s="203"/>
       <c r="C123" s="203"/>
-      <c r="D123" s="204"/>
-      <c r="E123" s="204"/>
-      <c r="F123" s="204"/>
+      <c r="D123" s="246"/>
+      <c r="E123" s="246"/>
+      <c r="F123" s="246"/>
       <c r="G123" s="204" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H123" s="204" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I123" s="204" t="s">
         <v>121</v>
@@ -54628,7 +54740,7 @@
         <v>6</v>
       </c>
       <c r="P123" s="204" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q123" s="205"/>
       <c r="R123" s="205"/>
@@ -54711,17 +54823,23 @@
         <v>138</v>
       </c>
       <c r="B124" s="113" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="C124" s="117"/>
-      <c r="D124" s="94"/>
-      <c r="E124" s="94"/>
-      <c r="F124" s="94"/>
+      <c r="D124" s="72">
+        <v>40969</v>
+      </c>
+      <c r="E124" s="72">
+        <v>40969</v>
+      </c>
+      <c r="F124" s="72">
+        <v>41000</v>
+      </c>
       <c r="G124" s="94" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="H124" s="94" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I124" s="94" t="s">
         <v>121</v>
@@ -54745,7 +54863,7 @@
         <v>6</v>
       </c>
       <c r="P124" s="94" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q124" s="74">
         <v>3.75</v>
@@ -54963,17 +55081,23 @@
         <v>139</v>
       </c>
       <c r="B125" s="113" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="C125" s="117"/>
-      <c r="D125" s="94"/>
-      <c r="E125" s="94"/>
-      <c r="F125" s="94"/>
+      <c r="D125" s="72">
+        <v>40969</v>
+      </c>
+      <c r="E125" s="72">
+        <v>40969</v>
+      </c>
+      <c r="F125" s="72">
+        <v>41000</v>
+      </c>
       <c r="G125" s="94" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="H125" s="94" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I125" s="94" t="s">
         <v>121</v>
@@ -54997,7 +55121,7 @@
         <v>6</v>
       </c>
       <c r="P125" s="94" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q125" s="74">
         <v>3.75</v>
@@ -55215,17 +55339,23 @@
         <v>140</v>
       </c>
       <c r="B126" s="113" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="C126" s="117"/>
-      <c r="D126" s="94"/>
-      <c r="E126" s="94"/>
-      <c r="F126" s="94"/>
+      <c r="D126" s="72">
+        <v>40969</v>
+      </c>
+      <c r="E126" s="72">
+        <v>40969</v>
+      </c>
+      <c r="F126" s="72">
+        <v>41000</v>
+      </c>
       <c r="G126" s="94" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="H126" s="94" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I126" s="94" t="s">
         <v>121</v>
@@ -55249,7 +55379,7 @@
         <v>6</v>
       </c>
       <c r="P126" s="94" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q126" s="74">
         <v>3.75</v>
@@ -55467,17 +55597,23 @@
         <v>141</v>
       </c>
       <c r="B127" s="113" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="C127" s="117"/>
-      <c r="D127" s="94"/>
-      <c r="E127" s="94"/>
-      <c r="F127" s="94"/>
+      <c r="D127" s="72">
+        <v>40969</v>
+      </c>
+      <c r="E127" s="72">
+        <v>40969</v>
+      </c>
+      <c r="F127" s="72">
+        <v>41000</v>
+      </c>
       <c r="G127" s="94" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="H127" s="94" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I127" s="94" t="s">
         <v>121</v>
@@ -55501,7 +55637,7 @@
         <v>6</v>
       </c>
       <c r="P127" s="94" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q127" s="74">
         <v>3.75</v>
@@ -55719,17 +55855,23 @@
         <v>142</v>
       </c>
       <c r="B128" s="113" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="C128" s="117"/>
-      <c r="D128" s="94"/>
-      <c r="E128" s="94"/>
-      <c r="F128" s="94"/>
+      <c r="D128" s="72">
+        <v>40969</v>
+      </c>
+      <c r="E128" s="72">
+        <v>40969</v>
+      </c>
+      <c r="F128" s="72">
+        <v>41000</v>
+      </c>
       <c r="G128" s="94" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="H128" s="94" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I128" s="94" t="s">
         <v>121</v>
@@ -55753,7 +55895,7 @@
         <v>6</v>
       </c>
       <c r="P128" s="94" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q128" s="74">
         <v>3.75</v>
@@ -55971,17 +56113,23 @@
         <v>143</v>
       </c>
       <c r="B129" s="113" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="C129" s="117"/>
-      <c r="D129" s="94"/>
-      <c r="E129" s="94"/>
-      <c r="F129" s="94"/>
+      <c r="D129" s="72">
+        <v>40969</v>
+      </c>
+      <c r="E129" s="72">
+        <v>40969</v>
+      </c>
+      <c r="F129" s="72">
+        <v>41000</v>
+      </c>
       <c r="G129" s="94" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="H129" s="94" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I129" s="94" t="s">
         <v>121</v>
@@ -56005,7 +56153,7 @@
         <v>6</v>
       </c>
       <c r="P129" s="94" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q129" s="74">
         <v>3.75</v>
@@ -56223,17 +56371,23 @@
         <v>144</v>
       </c>
       <c r="B130" s="113" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="C130" s="117"/>
-      <c r="D130" s="94"/>
-      <c r="E130" s="94"/>
-      <c r="F130" s="94"/>
+      <c r="D130" s="72">
+        <v>40969</v>
+      </c>
+      <c r="E130" s="72">
+        <v>40969</v>
+      </c>
+      <c r="F130" s="72">
+        <v>41000</v>
+      </c>
       <c r="G130" s="94" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="H130" s="94" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I130" s="94" t="s">
         <v>121</v>
@@ -56257,7 +56411,7 @@
         <v>6</v>
       </c>
       <c r="P130" s="94" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q130" s="74">
         <v>3.75</v>
@@ -56475,17 +56629,23 @@
         <v>145</v>
       </c>
       <c r="B131" s="113" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="C131" s="117"/>
-      <c r="D131" s="94"/>
-      <c r="E131" s="94"/>
-      <c r="F131" s="94"/>
+      <c r="D131" s="72">
+        <v>40969</v>
+      </c>
+      <c r="E131" s="72">
+        <v>40969</v>
+      </c>
+      <c r="F131" s="72">
+        <v>41000</v>
+      </c>
       <c r="G131" s="94" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="H131" s="94" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I131" s="94" t="s">
         <v>121</v>
@@ -56509,7 +56669,7 @@
         <v>6</v>
       </c>
       <c r="P131" s="94" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q131" s="74">
         <v>3.75</v>
@@ -56727,17 +56887,23 @@
         <v>146</v>
       </c>
       <c r="B132" s="113" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="C132" s="117"/>
-      <c r="D132" s="94"/>
-      <c r="E132" s="94"/>
-      <c r="F132" s="94"/>
+      <c r="D132" s="72">
+        <v>40969</v>
+      </c>
+      <c r="E132" s="72">
+        <v>40969</v>
+      </c>
+      <c r="F132" s="72">
+        <v>41000</v>
+      </c>
       <c r="G132" s="94" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="H132" s="94" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I132" s="94" t="s">
         <v>121</v>
@@ -56761,7 +56927,7 @@
         <v>6</v>
       </c>
       <c r="P132" s="94" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q132" s="74">
         <v>3.75</v>
@@ -56979,17 +57145,23 @@
         <v>147</v>
       </c>
       <c r="B133" s="113" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="C133" s="117"/>
-      <c r="D133" s="94"/>
-      <c r="E133" s="94"/>
-      <c r="F133" s="94"/>
+      <c r="D133" s="72">
+        <v>40969</v>
+      </c>
+      <c r="E133" s="72">
+        <v>40969</v>
+      </c>
+      <c r="F133" s="72">
+        <v>41000</v>
+      </c>
       <c r="G133" s="94" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="H133" s="94" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="I133" s="94" t="s">
         <v>121</v>
@@ -57013,7 +57185,7 @@
         <v>6</v>
       </c>
       <c r="P133" s="94" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q133" s="74">
         <v>6.5</v>
@@ -57236,14 +57408,14 @@
       <c r="BM134" s="141"/>
     </row>
     <row r="135" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A135" s="248" t="s">
-        <v>489</v>
-      </c>
-      <c r="B135" s="249"/>
-      <c r="C135" s="250"/>
-      <c r="D135" s="94"/>
-      <c r="E135" s="94"/>
-      <c r="F135" s="94"/>
+      <c r="A135" s="249" t="s">
+        <v>484</v>
+      </c>
+      <c r="B135" s="250"/>
+      <c r="C135" s="251"/>
+      <c r="D135" s="72"/>
+      <c r="E135" s="72"/>
+      <c r="F135" s="72"/>
       <c r="G135" s="94"/>
       <c r="H135" s="94"/>
       <c r="I135" s="94"/>
@@ -57332,14 +57504,20 @@
         <v>200</v>
       </c>
       <c r="C136" s="117"/>
-      <c r="D136" s="91"/>
-      <c r="E136" s="91"/>
-      <c r="F136" s="91"/>
+      <c r="D136" s="72">
+        <v>42608</v>
+      </c>
+      <c r="E136" s="72">
+        <v>42608</v>
+      </c>
+      <c r="F136" s="72">
+        <v>42644</v>
+      </c>
       <c r="G136" s="94" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H136" s="91" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="I136" s="91" t="s">
         <v>121</v>
@@ -57363,7 +57541,7 @@
         <v>6</v>
       </c>
       <c r="P136" s="221" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q136" s="74">
         <v>4.5</v>
@@ -57444,7 +57622,7 @@
         <v>700</v>
       </c>
       <c r="AQ136" s="103">
-        <v>16444.78</v>
+        <v>16156.06</v>
       </c>
       <c r="AR136" s="103">
         <v>3598.66</v>
@@ -57508,7 +57686,7 @@
         <v>700</v>
       </c>
       <c r="BL136" s="103">
-        <v>16444.78</v>
+        <v>16156.06</v>
       </c>
       <c r="BM136" s="103">
         <v>3598.66</v>
@@ -57582,14 +57760,20 @@
         <v>200</v>
       </c>
       <c r="C137" s="117"/>
-      <c r="D137" s="91"/>
-      <c r="E137" s="91"/>
-      <c r="F137" s="91"/>
+      <c r="D137" s="72">
+        <v>40969</v>
+      </c>
+      <c r="E137" s="72">
+        <v>40969</v>
+      </c>
+      <c r="F137" s="72">
+        <v>41000</v>
+      </c>
       <c r="G137" s="94" t="s">
-        <v>599</v>
+        <v>581</v>
       </c>
       <c r="H137" s="91" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="I137" s="91" t="s">
         <v>121</v>
@@ -57613,7 +57797,7 @@
         <v>6</v>
       </c>
       <c r="P137" s="221" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="Q137" s="74">
         <v>3.75</v>
@@ -57694,7 +57878,7 @@
         <v>2292.5</v>
       </c>
       <c r="AQ137" s="103">
-        <v>23811.66</v>
+        <v>44322.86</v>
       </c>
       <c r="AR137" s="103">
         <v>13226.34</v>
@@ -57757,7 +57941,7 @@
         <v>2292.5</v>
       </c>
       <c r="BL137" s="103">
-        <v>23811.66</v>
+        <v>44322.86</v>
       </c>
       <c r="BM137" s="103">
         <v>13226.34</v>
@@ -57827,9 +58011,9 @@
       <c r="A138" s="154"/>
       <c r="B138" s="113"/>
       <c r="C138" s="117"/>
-      <c r="D138" s="91"/>
-      <c r="E138" s="91"/>
-      <c r="F138" s="91"/>
+      <c r="D138" s="72"/>
+      <c r="E138" s="72"/>
+      <c r="F138" s="72"/>
       <c r="G138" s="94"/>
       <c r="H138" s="91"/>
       <c r="I138" s="91"/>
@@ -57914,9 +58098,9 @@
       <c r="A139" s="154"/>
       <c r="B139" s="113"/>
       <c r="C139" s="117"/>
-      <c r="D139" s="91"/>
-      <c r="E139" s="91"/>
-      <c r="F139" s="91"/>
+      <c r="D139" s="72"/>
+      <c r="E139" s="72"/>
+      <c r="F139" s="72"/>
       <c r="G139" s="94"/>
       <c r="H139" s="91"/>
       <c r="I139" s="91"/>
@@ -58001,9 +58185,9 @@
       <c r="A140" s="154"/>
       <c r="B140" s="113"/>
       <c r="C140" s="117"/>
-      <c r="D140" s="91"/>
-      <c r="E140" s="91"/>
-      <c r="F140" s="91"/>
+      <c r="D140" s="72"/>
+      <c r="E140" s="72"/>
+      <c r="F140" s="72"/>
       <c r="G140" s="94"/>
       <c r="H140" s="91"/>
       <c r="I140" s="91"/>
@@ -58088,9 +58272,9 @@
       <c r="A141" s="154"/>
       <c r="B141" s="113"/>
       <c r="C141" s="117"/>
-      <c r="D141" s="91"/>
-      <c r="E141" s="91"/>
-      <c r="F141" s="91"/>
+      <c r="D141" s="72"/>
+      <c r="E141" s="72"/>
+      <c r="F141" s="72"/>
       <c r="G141" s="94"/>
       <c r="H141" s="91"/>
       <c r="I141" s="91"/>
@@ -58175,9 +58359,9 @@
       <c r="A142" s="154"/>
       <c r="B142" s="113"/>
       <c r="C142" s="117"/>
-      <c r="D142" s="91"/>
-      <c r="E142" s="91"/>
-      <c r="F142" s="91"/>
+      <c r="D142" s="72"/>
+      <c r="E142" s="72"/>
+      <c r="F142" s="72"/>
       <c r="G142" s="94"/>
       <c r="H142" s="91"/>
       <c r="I142" s="91"/>
@@ -58262,9 +58446,9 @@
       <c r="A143" s="154"/>
       <c r="B143" s="113"/>
       <c r="C143" s="117"/>
-      <c r="D143" s="91"/>
-      <c r="E143" s="91"/>
-      <c r="F143" s="91"/>
+      <c r="D143" s="72"/>
+      <c r="E143" s="72"/>
+      <c r="F143" s="72"/>
       <c r="G143" s="94"/>
       <c r="H143" s="91"/>
       <c r="I143" s="91"/>
@@ -58520,9 +58704,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H142" sqref="H142:H143"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58562,10 +58746,10 @@
         <v>68</v>
       </c>
       <c r="H1" s="133" t="s">
-        <v>602</v>
+        <v>584</v>
       </c>
       <c r="I1" s="41" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
       <c r="J1" s="23" t="s">
         <v>150</v>
@@ -58594,7 +58778,7 @@
         <v>155000</v>
       </c>
       <c r="H2" s="186" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I2" s="136">
         <v>78</v>
@@ -58626,7 +58810,7 @@
         <v>155000</v>
       </c>
       <c r="H3" s="186" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I3" s="136">
         <v>78</v>
@@ -58658,7 +58842,7 @@
         <v>155000</v>
       </c>
       <c r="H4" s="186" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I4" s="136">
         <v>78</v>
@@ -58691,7 +58875,7 @@
         <v>155000</v>
       </c>
       <c r="H5" s="186" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I5" s="136">
         <v>78</v>
@@ -58723,7 +58907,7 @@
         <v>155000</v>
       </c>
       <c r="H6" s="186" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I6" s="136">
         <v>78</v>
@@ -58755,7 +58939,7 @@
         <v>155000</v>
       </c>
       <c r="H7" s="186" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I7" s="136">
         <v>78</v>
@@ -58787,7 +58971,7 @@
         <v>155000</v>
       </c>
       <c r="H8" s="186" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I8" s="136">
         <v>78</v>
@@ -58819,7 +59003,7 @@
         <v>155000</v>
       </c>
       <c r="H9" s="186" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I9" s="136">
         <v>78</v>
@@ -58852,7 +59036,7 @@
         <v>155000</v>
       </c>
       <c r="H10" s="186" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I10" s="136">
         <v>78</v>
@@ -58884,7 +59068,7 @@
         <v>155000</v>
       </c>
       <c r="H11" s="186" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I11" s="136">
         <v>78</v>
@@ -58916,7 +59100,7 @@
         <v>155000</v>
       </c>
       <c r="H12" s="186" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I12" s="136">
         <v>78</v>
@@ -58948,7 +59132,7 @@
         <v>155000</v>
       </c>
       <c r="H13" s="186" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I13" s="136">
         <v>78</v>
@@ -58980,7 +59164,7 @@
         <v>155000</v>
       </c>
       <c r="H14" s="186" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I14" s="136">
         <v>78</v>
@@ -59012,7 +59196,7 @@
         <v>155000</v>
       </c>
       <c r="H15" s="186" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I15" s="136">
         <v>78</v>
@@ -59044,7 +59228,7 @@
         <v>155000</v>
       </c>
       <c r="H16" s="186" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I16" s="136">
         <v>78</v>
@@ -59123,10 +59307,10 @@
         <v>25</v>
       </c>
       <c r="B22" s="127" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="C22" s="127" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="D22" s="127" t="s">
         <v>125</v>
@@ -59141,7 +59325,7 @@
         <v>152000</v>
       </c>
       <c r="H22" s="186" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I22" s="136">
         <v>78</v>
@@ -59155,10 +59339,10 @@
         <v>26</v>
       </c>
       <c r="B23" s="127" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="C23" s="127" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="D23" s="127" t="s">
         <v>125</v>
@@ -59173,7 +59357,7 @@
         <v>152000</v>
       </c>
       <c r="H23" s="186" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I23" s="136">
         <v>78</v>
@@ -59216,7 +59400,7 @@
         <v>155000</v>
       </c>
       <c r="H25" s="186" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I25" s="136">
         <v>78</v>
@@ -59274,7 +59458,7 @@
         <v>155000</v>
       </c>
       <c r="H28" s="186" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I28" s="136">
         <v>78</v>
@@ -59323,7 +59507,7 @@
         <v>125</v>
       </c>
       <c r="E31" s="73" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="F31" s="187">
         <v>41000</v>
@@ -59332,7 +59516,7 @@
         <v>155000</v>
       </c>
       <c r="H31" s="186" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I31" s="136">
         <v>78</v>
@@ -59364,7 +59548,7 @@
         <v>131000</v>
       </c>
       <c r="H32" s="186" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I32" s="136">
         <v>78</v>
@@ -59396,7 +59580,7 @@
         <v>155000</v>
       </c>
       <c r="H33" s="186" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I33" s="136">
         <v>78</v>
@@ -59417,12 +59601,12 @@
       <c r="I34" s="136"/>
     </row>
     <row r="35" spans="1:10" s="123" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="248" t="s">
+      <c r="A35" s="249" t="s">
         <v>223</v>
       </c>
-      <c r="B35" s="249"/>
-      <c r="C35" s="249"/>
-      <c r="D35" s="250"/>
+      <c r="B35" s="250"/>
+      <c r="C35" s="250"/>
+      <c r="D35" s="251"/>
       <c r="E35" s="73"/>
       <c r="F35" s="187"/>
       <c r="G35" s="127"/>
@@ -59544,7 +59728,7 @@
       <c r="F44" s="188"/>
       <c r="G44" s="127"/>
       <c r="H44" s="89" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I44" s="214">
         <v>78</v>
@@ -59561,7 +59745,7 @@
       <c r="F45" s="188"/>
       <c r="G45" s="127"/>
       <c r="H45" s="89" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I45" s="214">
         <v>78</v>
@@ -59578,7 +59762,7 @@
       <c r="F46" s="188"/>
       <c r="G46" s="127"/>
       <c r="H46" s="89" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I46" s="214">
         <v>78</v>
@@ -59595,7 +59779,7 @@
       <c r="F47" s="188"/>
       <c r="G47" s="127"/>
       <c r="H47" s="89" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I47" s="214">
         <v>78</v>
@@ -59612,7 +59796,7 @@
       <c r="F48" s="188"/>
       <c r="G48" s="127"/>
       <c r="H48" s="89" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I48" s="214">
         <v>78</v>
@@ -59629,7 +59813,7 @@
       <c r="F49" s="188"/>
       <c r="G49" s="127"/>
       <c r="H49" s="89" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I49" s="214">
         <v>78</v>
@@ -59646,7 +59830,7 @@
       <c r="F50" s="188"/>
       <c r="G50" s="127"/>
       <c r="H50" s="89" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I50" s="214">
         <v>78</v>
@@ -59663,7 +59847,7 @@
       <c r="F51" s="188"/>
       <c r="G51" s="127"/>
       <c r="H51" s="89" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I51" s="214">
         <v>78</v>
@@ -59680,7 +59864,7 @@
       <c r="F52" s="188"/>
       <c r="G52" s="127"/>
       <c r="H52" s="89" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I52" s="214">
         <v>78</v>
@@ -59697,7 +59881,7 @@
       <c r="F53" s="188"/>
       <c r="G53" s="127"/>
       <c r="H53" s="89" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I53" s="214">
         <v>78</v>
@@ -59715,12 +59899,12 @@
       <c r="I54" s="106"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="248" t="s">
+      <c r="A55" s="249" t="s">
         <v>224</v>
       </c>
-      <c r="B55" s="249"/>
-      <c r="C55" s="249"/>
-      <c r="D55" s="250"/>
+      <c r="B55" s="250"/>
+      <c r="C55" s="250"/>
+      <c r="D55" s="251"/>
       <c r="E55" s="73"/>
       <c r="F55" s="187"/>
       <c r="G55" s="127"/>
@@ -59751,7 +59935,7 @@
         <v>155000</v>
       </c>
       <c r="H56" s="73" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I56" s="136">
         <v>78</v>
@@ -59783,7 +59967,7 @@
         <v>155000</v>
       </c>
       <c r="H57" s="73" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I57" s="136">
         <v>78</v>
@@ -59815,7 +59999,7 @@
         <v>155000</v>
       </c>
       <c r="H58" s="73" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I58" s="136">
         <v>78</v>
@@ -59847,7 +60031,7 @@
         <v>155000</v>
       </c>
       <c r="H59" s="73" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I59" s="136">
         <v>78</v>
@@ -59879,7 +60063,7 @@
         <v>155000</v>
       </c>
       <c r="H60" s="73" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I60" s="136">
         <v>78</v>
@@ -59911,7 +60095,7 @@
         <v>155000</v>
       </c>
       <c r="H61" s="73" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I61" s="136">
         <v>78</v>
@@ -59943,7 +60127,7 @@
         <v>155000</v>
       </c>
       <c r="H62" s="73" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I62" s="136">
         <v>78</v>
@@ -59975,7 +60159,7 @@
         <v>155000</v>
       </c>
       <c r="H63" s="73" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I63" s="136">
         <v>78</v>
@@ -60005,7 +60189,7 @@
         <v>155000</v>
       </c>
       <c r="H64" s="89" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I64" s="214">
         <v>78</v>
@@ -60035,7 +60219,7 @@
         <v>155000</v>
       </c>
       <c r="H65" s="89" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I65" s="214">
         <v>78</v>
@@ -60065,7 +60249,7 @@
         <v>155000</v>
       </c>
       <c r="H66" s="89" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I66" s="214">
         <v>78</v>
@@ -60095,7 +60279,7 @@
         <v>155000</v>
       </c>
       <c r="H67" s="89" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I67" s="214">
         <v>78</v>
@@ -60125,7 +60309,7 @@
         <v>155000</v>
       </c>
       <c r="H68" s="89" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I68" s="214">
         <v>78</v>
@@ -60155,7 +60339,7 @@
         <v>155000</v>
       </c>
       <c r="H69" s="89" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I69" s="214">
         <v>78</v>
@@ -60185,7 +60369,7 @@
         <v>155000</v>
       </c>
       <c r="H70" s="89" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I70" s="214">
         <v>78</v>
@@ -60215,7 +60399,7 @@
         <v>155000</v>
       </c>
       <c r="H71" s="89" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I71" s="214">
         <v>78</v>
@@ -60262,12 +60446,12 @@
       <c r="I74" s="106"/>
     </row>
     <row r="75" spans="1:10" s="124" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="248" t="s">
+      <c r="A75" s="249" t="s">
         <v>223</v>
       </c>
-      <c r="B75" s="249"/>
-      <c r="C75" s="249"/>
-      <c r="D75" s="250"/>
+      <c r="B75" s="250"/>
+      <c r="C75" s="250"/>
+      <c r="D75" s="251"/>
       <c r="E75" s="73"/>
       <c r="F75" s="187"/>
       <c r="G75" s="127"/>
@@ -60516,12 +60700,12 @@
       <c r="G94" s="118"/>
     </row>
     <row r="95" spans="1:10" s="125" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="248" t="s">
+      <c r="A95" s="249" t="s">
         <v>226</v>
       </c>
-      <c r="B95" s="249"/>
-      <c r="C95" s="249"/>
-      <c r="D95" s="250"/>
+      <c r="B95" s="250"/>
+      <c r="C95" s="250"/>
+      <c r="D95" s="251"/>
       <c r="E95" s="73"/>
       <c r="F95" s="187"/>
       <c r="G95" s="127"/>
@@ -60551,7 +60735,7 @@
         <v>155000</v>
       </c>
       <c r="H96" s="73" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I96" s="136">
         <v>78</v>
@@ -60583,7 +60767,7 @@
         <v>155000</v>
       </c>
       <c r="H97" s="73" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I97" s="136">
         <v>78</v>
@@ -60615,7 +60799,7 @@
         <v>155000</v>
       </c>
       <c r="H98" s="73" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I98" s="136">
         <v>78</v>
@@ -60647,7 +60831,7 @@
         <v>155000</v>
       </c>
       <c r="H99" s="73" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I99" s="136">
         <v>78</v>
@@ -60679,7 +60863,7 @@
         <v>155000</v>
       </c>
       <c r="H100" s="73" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I100" s="136">
         <v>78</v>
@@ -60711,7 +60895,7 @@
         <v>155000</v>
       </c>
       <c r="H101" s="73" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I101" s="136">
         <v>78</v>
@@ -60743,7 +60927,7 @@
         <v>155000</v>
       </c>
       <c r="H102" s="73" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I102" s="136">
         <v>78</v>
@@ -60775,7 +60959,7 @@
         <v>155000</v>
       </c>
       <c r="H103" s="73" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I103" s="136">
         <v>78</v>
@@ -60922,12 +61106,12 @@
       <c r="G114" s="118"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="248" t="s">
+      <c r="A115" s="249" t="s">
         <v>227</v>
       </c>
-      <c r="B115" s="249"/>
-      <c r="C115" s="249"/>
-      <c r="D115" s="250"/>
+      <c r="B115" s="250"/>
+      <c r="C115" s="250"/>
+      <c r="D115" s="251"/>
       <c r="E115" s="73"/>
       <c r="F115" s="187"/>
       <c r="G115" s="127"/>
@@ -61169,12 +61353,12 @@
       <c r="I133" s="136"/>
     </row>
     <row r="135" spans="1:9" s="126" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="248" t="s">
-        <v>489</v>
-      </c>
-      <c r="B135" s="249"/>
-      <c r="C135" s="249"/>
-      <c r="D135" s="250"/>
+      <c r="A135" s="249" t="s">
+        <v>484</v>
+      </c>
+      <c r="B135" s="250"/>
+      <c r="C135" s="250"/>
+      <c r="D135" s="251"/>
       <c r="E135" s="73"/>
       <c r="F135" s="187"/>
       <c r="G135" s="127"/>
@@ -61192,7 +61376,7 @@
       <c r="F136" s="187"/>
       <c r="G136" s="128"/>
       <c r="H136" s="73" t="s">
-        <v>604</v>
+        <v>586</v>
       </c>
       <c r="I136" s="136">
         <v>132</v>
@@ -61209,7 +61393,7 @@
       <c r="F137" s="187"/>
       <c r="G137" s="128"/>
       <c r="H137" s="73" t="s">
-        <v>605</v>
+        <v>587</v>
       </c>
       <c r="I137" s="136">
         <v>0</v>
@@ -61274,10 +61458,10 @@
   <dimension ref="A1:Q137"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -61285,9 +61469,11 @@
     <col min="1" max="1" width="11.5703125" style="159" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="23.5703125" customWidth="1"/>
-    <col min="10" max="10" width="24.42578125" customWidth="1"/>
-    <col min="11" max="12" width="23.7109375" customWidth="1"/>
-    <col min="13" max="17" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -61361,13 +61547,13 @@
       <c r="H2" s="170"/>
       <c r="I2" s="170"/>
       <c r="J2" s="170" t="s">
-        <v>459</v>
+        <v>588</v>
       </c>
       <c r="K2" s="170" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="L2" s="170" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="M2" s="170"/>
       <c r="N2" s="170"/>
@@ -61394,16 +61580,16 @@
       <c r="H3" s="170"/>
       <c r="I3" s="170"/>
       <c r="J3" s="170" t="s">
-        <v>459</v>
+        <v>588</v>
       </c>
       <c r="K3" s="170" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="L3" s="170" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="M3" s="170" t="s">
-        <v>463</v>
+        <v>604</v>
       </c>
       <c r="N3" s="170"/>
       <c r="O3" s="170"/>
@@ -61427,13 +61613,13 @@
       <c r="H4" s="170"/>
       <c r="I4" s="170"/>
       <c r="J4" s="170" t="s">
-        <v>459</v>
+        <v>588</v>
       </c>
       <c r="K4" s="170" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="L4" s="170" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="M4" s="170"/>
       <c r="N4" s="170"/>
@@ -61460,16 +61646,16 @@
       <c r="H5" s="170"/>
       <c r="I5" s="170"/>
       <c r="J5" s="170" t="s">
-        <v>459</v>
+        <v>588</v>
       </c>
       <c r="K5" s="170" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="L5" s="170" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="M5" s="170" t="s">
-        <v>463</v>
+        <v>604</v>
       </c>
       <c r="N5" s="170"/>
       <c r="O5" s="170"/>
@@ -61493,13 +61679,13 @@
       <c r="H6" s="170"/>
       <c r="I6" s="170"/>
       <c r="J6" s="170" t="s">
-        <v>459</v>
+        <v>588</v>
       </c>
       <c r="K6" s="170" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="L6" s="170" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="M6" s="170"/>
       <c r="N6" s="170"/>
@@ -61524,13 +61710,13 @@
       <c r="H7" s="170"/>
       <c r="I7" s="170"/>
       <c r="J7" s="170" t="s">
-        <v>459</v>
+        <v>588</v>
       </c>
       <c r="K7" s="170" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="L7" s="170" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="M7" s="170"/>
       <c r="N7" s="170"/>
@@ -61555,13 +61741,13 @@
       <c r="H8" s="170"/>
       <c r="I8" s="170"/>
       <c r="J8" s="170" t="s">
-        <v>462</v>
+        <v>589</v>
       </c>
       <c r="K8" s="170" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="L8" s="170" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="M8" s="170"/>
       <c r="N8" s="170"/>
@@ -61586,13 +61772,13 @@
       <c r="H9" s="170"/>
       <c r="I9" s="170"/>
       <c r="J9" s="170" t="s">
-        <v>459</v>
+        <v>588</v>
       </c>
       <c r="K9" s="170" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="L9" s="170" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="M9" s="170"/>
       <c r="N9" s="170"/>
@@ -61617,13 +61803,13 @@
       <c r="H10" s="170"/>
       <c r="I10" s="170"/>
       <c r="J10" s="170" t="s">
-        <v>459</v>
+        <v>588</v>
       </c>
       <c r="K10" s="170" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="L10" s="170" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="M10" s="170"/>
       <c r="N10" s="170"/>
@@ -61648,13 +61834,13 @@
       <c r="H11" s="170"/>
       <c r="I11" s="170"/>
       <c r="J11" s="170" t="s">
-        <v>459</v>
+        <v>588</v>
       </c>
       <c r="K11" s="170" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="L11" s="170" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="M11" s="170"/>
       <c r="N11" s="170"/>
@@ -61679,13 +61865,13 @@
       <c r="H12" s="170"/>
       <c r="I12" s="170"/>
       <c r="J12" s="170" t="s">
-        <v>459</v>
+        <v>588</v>
       </c>
       <c r="K12" s="170" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="L12" s="170" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="M12" s="170"/>
       <c r="N12" s="170"/>
@@ -61710,13 +61896,13 @@
       <c r="H13" s="170"/>
       <c r="I13" s="170"/>
       <c r="J13" s="170" t="s">
-        <v>459</v>
+        <v>588</v>
       </c>
       <c r="K13" s="170" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="L13" s="170" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="M13" s="170"/>
       <c r="N13" s="170"/>
@@ -61743,16 +61929,16 @@
       <c r="H14" s="170"/>
       <c r="I14" s="170"/>
       <c r="J14" s="170" t="s">
-        <v>459</v>
+        <v>588</v>
       </c>
       <c r="K14" s="170" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="L14" s="170" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="M14" s="170" t="s">
-        <v>463</v>
+        <v>604</v>
       </c>
       <c r="N14" s="170"/>
       <c r="O14" s="170"/>
@@ -61776,13 +61962,13 @@
       <c r="H15" s="170"/>
       <c r="I15" s="170"/>
       <c r="J15" s="170" t="s">
-        <v>459</v>
+        <v>588</v>
       </c>
       <c r="K15" s="170" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="L15" s="170" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="M15" s="170"/>
       <c r="N15" s="170"/>
@@ -61807,13 +61993,13 @@
       <c r="H16" s="170"/>
       <c r="I16" s="170"/>
       <c r="J16" s="170" t="s">
-        <v>459</v>
+        <v>588</v>
       </c>
       <c r="K16" s="170" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="L16" s="170" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="M16" s="170"/>
       <c r="N16" s="170"/>
@@ -61838,13 +62024,13 @@
       <c r="H17" s="170"/>
       <c r="I17" s="170"/>
       <c r="J17" s="170" t="s">
-        <v>459</v>
+        <v>588</v>
       </c>
       <c r="K17" s="170" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="L17" s="170" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="M17" s="170"/>
       <c r="N17" s="170"/>
@@ -61869,13 +62055,13 @@
       <c r="H18" s="170"/>
       <c r="I18" s="170"/>
       <c r="J18" s="170" t="s">
-        <v>459</v>
+        <v>588</v>
       </c>
       <c r="K18" s="170" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="L18" s="170" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="M18" s="170"/>
       <c r="N18" s="170"/>
@@ -61902,16 +62088,16 @@
       <c r="H19" s="170"/>
       <c r="I19" s="170"/>
       <c r="J19" s="170" t="s">
-        <v>459</v>
+        <v>588</v>
       </c>
       <c r="K19" s="170" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="L19" s="170" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="M19" s="170" t="s">
-        <v>463</v>
+        <v>604</v>
       </c>
       <c r="N19" s="170"/>
       <c r="O19" s="170"/>
@@ -61935,10 +62121,10 @@
       <c r="H20" s="170"/>
       <c r="I20" s="170"/>
       <c r="J20" s="170" t="s">
-        <v>550</v>
+        <v>590</v>
       </c>
       <c r="K20" s="170" t="s">
-        <v>551</v>
+        <v>597</v>
       </c>
       <c r="L20" s="170"/>
       <c r="M20" s="170"/>
@@ -61964,10 +62150,10 @@
       <c r="H21" s="170"/>
       <c r="I21" s="170"/>
       <c r="J21" s="170" t="s">
-        <v>552</v>
+        <v>591</v>
       </c>
       <c r="K21" s="170" t="s">
-        <v>551</v>
+        <v>597</v>
       </c>
       <c r="L21" s="170"/>
       <c r="M21" s="170"/>
@@ -61993,13 +62179,13 @@
       <c r="H22" s="170"/>
       <c r="I22" s="170"/>
       <c r="J22" s="170" t="s">
-        <v>553</v>
+        <v>592</v>
       </c>
       <c r="K22" s="170" t="s">
-        <v>554</v>
+        <v>598</v>
       </c>
       <c r="L22" s="170" t="s">
-        <v>555</v>
+        <v>599</v>
       </c>
       <c r="M22" s="170"/>
       <c r="N22" s="170"/>
@@ -62024,13 +62210,13 @@
       <c r="H23" s="170"/>
       <c r="I23" s="170"/>
       <c r="J23" s="170" t="s">
-        <v>556</v>
+        <v>593</v>
       </c>
       <c r="K23" s="170" t="s">
-        <v>557</v>
+        <v>600</v>
       </c>
       <c r="L23" s="170" t="s">
-        <v>558</v>
+        <v>601</v>
       </c>
       <c r="M23" s="170"/>
       <c r="N23" s="170"/>
@@ -62074,13 +62260,13 @@
       <c r="H25" s="170"/>
       <c r="I25" s="170"/>
       <c r="J25" s="170" t="s">
-        <v>459</v>
+        <v>588</v>
       </c>
       <c r="K25" s="170" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="L25" s="170" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="M25" s="170"/>
       <c r="N25" s="170"/>
@@ -62105,13 +62291,13 @@
       <c r="H26" s="170"/>
       <c r="I26" s="170"/>
       <c r="J26" s="170" t="s">
-        <v>459</v>
+        <v>588</v>
       </c>
       <c r="K26" s="170" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="L26" s="170" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="M26" s="170"/>
       <c r="N26" s="170"/>
@@ -62136,13 +62322,13 @@
       <c r="H27" s="170"/>
       <c r="I27" s="170"/>
       <c r="J27" s="170" t="s">
-        <v>459</v>
+        <v>588</v>
       </c>
       <c r="K27" s="170" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="L27" s="170" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="M27" s="170"/>
       <c r="N27" s="170"/>
@@ -62167,13 +62353,13 @@
       <c r="H28" s="170"/>
       <c r="I28" s="170"/>
       <c r="J28" s="170" t="s">
-        <v>459</v>
+        <v>588</v>
       </c>
       <c r="K28" s="170" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="L28" s="170" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="M28" s="170"/>
       <c r="N28" s="170"/>
@@ -62198,13 +62384,13 @@
       <c r="H29" s="170"/>
       <c r="I29" s="170"/>
       <c r="J29" s="170" t="s">
-        <v>459</v>
+        <v>588</v>
       </c>
       <c r="K29" s="170" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="L29" s="170" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="M29" s="170"/>
       <c r="N29" s="170"/>
@@ -62229,13 +62415,13 @@
       <c r="H30" s="170"/>
       <c r="I30" s="170"/>
       <c r="J30" s="170" t="s">
-        <v>459</v>
+        <v>588</v>
       </c>
       <c r="K30" s="170" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="L30" s="170" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="M30" s="170"/>
       <c r="N30" s="170"/>
@@ -62262,16 +62448,16 @@
       <c r="H31" s="170"/>
       <c r="I31" s="170"/>
       <c r="J31" s="170" t="s">
-        <v>459</v>
+        <v>588</v>
       </c>
       <c r="K31" s="170" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="L31" s="170" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="M31" s="170" t="s">
-        <v>463</v>
+        <v>604</v>
       </c>
       <c r="N31" s="170"/>
       <c r="O31" s="170"/>
@@ -62297,16 +62483,16 @@
       <c r="H32" s="170"/>
       <c r="I32" s="170"/>
       <c r="J32" s="170" t="s">
-        <v>459</v>
+        <v>588</v>
       </c>
       <c r="K32" s="170" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="L32" s="170" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="M32" s="170" t="s">
-        <v>463</v>
+        <v>604</v>
       </c>
       <c r="N32" s="170"/>
       <c r="O32" s="170"/>
@@ -62330,13 +62516,13 @@
       <c r="H33" s="170"/>
       <c r="I33" s="170"/>
       <c r="J33" s="170" t="s">
-        <v>459</v>
+        <v>588</v>
       </c>
       <c r="K33" s="170" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="L33" s="170" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="M33" s="170"/>
       <c r="N33" s="170"/>
@@ -62399,13 +62585,13 @@
       <c r="H36" s="170"/>
       <c r="I36" s="170"/>
       <c r="J36" s="170" t="s">
-        <v>459</v>
+        <v>588</v>
       </c>
       <c r="K36" s="170" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="L36" s="170" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="M36" s="170"/>
       <c r="N36" s="170"/>
@@ -62430,13 +62616,13 @@
       <c r="H37" s="170"/>
       <c r="I37" s="170"/>
       <c r="J37" s="170" t="s">
-        <v>459</v>
+        <v>588</v>
       </c>
       <c r="K37" s="170" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="L37" s="170" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="M37" s="170"/>
       <c r="N37" s="170"/>
@@ -62461,13 +62647,13 @@
       <c r="H38" s="170"/>
       <c r="I38" s="170"/>
       <c r="J38" s="170" t="s">
-        <v>459</v>
+        <v>588</v>
       </c>
       <c r="K38" s="170" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="L38" s="170" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="M38" s="170"/>
       <c r="N38" s="170"/>
@@ -62492,13 +62678,13 @@
       <c r="H39" s="170"/>
       <c r="I39" s="170"/>
       <c r="J39" s="170" t="s">
-        <v>459</v>
+        <v>588</v>
       </c>
       <c r="K39" s="170" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="L39" s="170" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="M39" s="170"/>
       <c r="N39" s="170"/>
@@ -62523,13 +62709,13 @@
       <c r="H40" s="170"/>
       <c r="I40" s="170"/>
       <c r="J40" s="170" t="s">
-        <v>459</v>
+        <v>588</v>
       </c>
       <c r="K40" s="170" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="L40" s="170" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="M40" s="170"/>
       <c r="N40" s="170"/>
@@ -62554,13 +62740,13 @@
       <c r="H41" s="170"/>
       <c r="I41" s="170"/>
       <c r="J41" s="170" t="s">
-        <v>459</v>
+        <v>588</v>
       </c>
       <c r="K41" s="170" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="L41" s="170" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="M41" s="170"/>
       <c r="N41" s="170"/>
@@ -62585,13 +62771,13 @@
       <c r="H42" s="170"/>
       <c r="I42" s="170"/>
       <c r="J42" s="170" t="s">
-        <v>459</v>
+        <v>588</v>
       </c>
       <c r="K42" s="170" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="L42" s="170" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="M42" s="170"/>
       <c r="N42" s="170"/>
@@ -62616,13 +62802,13 @@
       <c r="H43" s="170"/>
       <c r="I43" s="170"/>
       <c r="J43" s="170" t="s">
-        <v>459</v>
+        <v>588</v>
       </c>
       <c r="K43" s="170" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="L43" s="170" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="M43" s="170"/>
       <c r="N43" s="170"/>
@@ -62910,7 +63096,7 @@
       <c r="P55" s="170"/>
       <c r="Q55" s="170"/>
     </row>
-    <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="180">
         <v>70</v>
       </c>
@@ -62927,13 +63113,13 @@
       <c r="H56" s="170"/>
       <c r="I56" s="170"/>
       <c r="J56" s="170" t="s">
-        <v>459</v>
+        <v>588</v>
       </c>
       <c r="K56" s="170" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="L56" s="170" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="M56" s="170"/>
       <c r="N56" s="170"/>
@@ -62941,7 +63127,7 @@
       <c r="P56" s="170"/>
       <c r="Q56" s="170"/>
     </row>
-    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="180">
         <v>71</v>
       </c>
@@ -62958,13 +63144,13 @@
       <c r="H57" s="170"/>
       <c r="I57" s="170"/>
       <c r="J57" s="170" t="s">
-        <v>459</v>
+        <v>588</v>
       </c>
       <c r="K57" s="170" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="L57" s="170" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="M57" s="170"/>
       <c r="N57" s="170"/>
@@ -62972,7 +63158,7 @@
       <c r="P57" s="170"/>
       <c r="Q57" s="170"/>
     </row>
-    <row r="58" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="180">
         <v>72</v>
       </c>
@@ -62989,13 +63175,13 @@
       <c r="H58" s="170"/>
       <c r="I58" s="170"/>
       <c r="J58" s="170" t="s">
-        <v>459</v>
+        <v>588</v>
       </c>
       <c r="K58" s="170" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="L58" s="170" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="M58" s="170"/>
       <c r="N58" s="170"/>
@@ -63020,13 +63206,13 @@
       <c r="H59" s="170"/>
       <c r="I59" s="170"/>
       <c r="J59" s="170" t="s">
-        <v>459</v>
+        <v>588</v>
       </c>
       <c r="K59" s="170" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="L59" s="170" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="M59" s="170"/>
       <c r="N59" s="170"/>
@@ -63051,13 +63237,13 @@
       <c r="H60" s="170"/>
       <c r="I60" s="170"/>
       <c r="J60" s="170" t="s">
-        <v>459</v>
+        <v>588</v>
       </c>
       <c r="K60" s="170" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="L60" s="170" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="M60" s="170"/>
       <c r="N60" s="170"/>
@@ -63082,13 +63268,13 @@
       <c r="H61" s="170"/>
       <c r="I61" s="170"/>
       <c r="J61" s="170" t="s">
-        <v>459</v>
+        <v>588</v>
       </c>
       <c r="K61" s="170" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="L61" s="170" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="M61" s="170"/>
       <c r="N61" s="170"/>
@@ -63113,13 +63299,13 @@
       <c r="H62" s="170"/>
       <c r="I62" s="170"/>
       <c r="J62" s="170" t="s">
-        <v>459</v>
+        <v>588</v>
       </c>
       <c r="K62" s="170" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="L62" s="170" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="M62" s="170"/>
       <c r="N62" s="170"/>
@@ -63144,13 +63330,13 @@
       <c r="H63" s="170"/>
       <c r="I63" s="170"/>
       <c r="J63" s="170" t="s">
-        <v>459</v>
+        <v>588</v>
       </c>
       <c r="K63" s="170" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="L63" s="170" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="M63" s="170"/>
       <c r="N63" s="170"/>
@@ -63464,16 +63650,16 @@
       <c r="H76" s="170"/>
       <c r="I76" s="170"/>
       <c r="J76" s="170" t="s">
-        <v>459</v>
+        <v>588</v>
       </c>
       <c r="K76" s="170" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="L76" s="170" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="M76" s="170" t="s">
-        <v>463</v>
+        <v>604</v>
       </c>
       <c r="N76" s="170"/>
       <c r="O76" s="170"/>
@@ -63497,13 +63683,13 @@
       <c r="H77" s="170"/>
       <c r="I77" s="170"/>
       <c r="J77" s="170" t="s">
-        <v>459</v>
+        <v>588</v>
       </c>
       <c r="K77" s="170" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="L77" s="170" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="M77" s="170"/>
       <c r="N77" s="170"/>
@@ -63530,16 +63716,16 @@
       <c r="H78" s="170"/>
       <c r="I78" s="170"/>
       <c r="J78" s="170" t="s">
-        <v>459</v>
+        <v>588</v>
       </c>
       <c r="K78" s="170" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="L78" s="170" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="M78" s="170" t="s">
-        <v>463</v>
+        <v>604</v>
       </c>
       <c r="N78" s="170"/>
       <c r="O78" s="170"/>
@@ -63563,13 +63749,13 @@
       <c r="H79" s="170"/>
       <c r="I79" s="170"/>
       <c r="J79" s="170" t="s">
-        <v>459</v>
+        <v>588</v>
       </c>
       <c r="K79" s="170" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="L79" s="170" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="M79" s="170"/>
       <c r="N79" s="170"/>
@@ -63594,13 +63780,13 @@
       <c r="H80" s="170"/>
       <c r="I80" s="170"/>
       <c r="J80" s="170" t="s">
-        <v>459</v>
+        <v>588</v>
       </c>
       <c r="K80" s="170" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="L80" s="170" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="M80" s="170"/>
       <c r="N80" s="170"/>
@@ -63625,13 +63811,13 @@
       <c r="H81" s="170"/>
       <c r="I81" s="170"/>
       <c r="J81" s="170" t="s">
-        <v>459</v>
+        <v>588</v>
       </c>
       <c r="K81" s="170" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="L81" s="170" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="M81" s="170"/>
       <c r="N81" s="170"/>
@@ -63656,13 +63842,13 @@
       <c r="H82" s="170"/>
       <c r="I82" s="170"/>
       <c r="J82" s="170" t="s">
-        <v>459</v>
+        <v>588</v>
       </c>
       <c r="K82" s="170" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="L82" s="170" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="M82" s="170"/>
       <c r="N82" s="170"/>
@@ -63687,13 +63873,13 @@
       <c r="H83" s="170"/>
       <c r="I83" s="170"/>
       <c r="J83" s="170" t="s">
-        <v>459</v>
+        <v>588</v>
       </c>
       <c r="K83" s="170" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="L83" s="170" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="M83" s="170"/>
       <c r="N83" s="170"/>
@@ -64006,13 +64192,13 @@
       <c r="H96" s="170"/>
       <c r="I96" s="170"/>
       <c r="J96" s="170" t="s">
-        <v>459</v>
+        <v>588</v>
       </c>
       <c r="K96" s="170" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="L96" s="170" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="M96" s="170"/>
       <c r="N96" s="170"/>
@@ -64037,13 +64223,13 @@
       <c r="H97" s="170"/>
       <c r="I97" s="170"/>
       <c r="J97" s="170" t="s">
-        <v>459</v>
+        <v>588</v>
       </c>
       <c r="K97" s="170" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="L97" s="170" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="M97" s="170"/>
       <c r="N97" s="170"/>
@@ -64068,13 +64254,13 @@
       <c r="H98" s="170"/>
       <c r="I98" s="170"/>
       <c r="J98" s="170" t="s">
-        <v>459</v>
+        <v>588</v>
       </c>
       <c r="K98" s="170" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="L98" s="170" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="M98" s="170"/>
       <c r="N98" s="170"/>
@@ -64099,13 +64285,13 @@
       <c r="H99" s="170"/>
       <c r="I99" s="170"/>
       <c r="J99" s="170" t="s">
-        <v>459</v>
+        <v>588</v>
       </c>
       <c r="K99" s="170" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="L99" s="170" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="M99" s="170"/>
       <c r="N99" s="170"/>
@@ -64130,13 +64316,13 @@
       <c r="H100" s="170"/>
       <c r="I100" s="170"/>
       <c r="J100" s="170" t="s">
-        <v>459</v>
+        <v>588</v>
       </c>
       <c r="K100" s="170" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="L100" s="170" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="M100" s="170"/>
       <c r="N100" s="170"/>
@@ -64161,13 +64347,13 @@
       <c r="H101" s="170"/>
       <c r="I101" s="170"/>
       <c r="J101" s="170" t="s">
-        <v>459</v>
+        <v>588</v>
       </c>
       <c r="K101" s="170" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="L101" s="170" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="M101" s="170"/>
       <c r="N101" s="170"/>
@@ -64192,13 +64378,13 @@
       <c r="H102" s="170"/>
       <c r="I102" s="170"/>
       <c r="J102" s="170" t="s">
-        <v>459</v>
+        <v>588</v>
       </c>
       <c r="K102" s="170" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="L102" s="170" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="M102" s="170"/>
       <c r="N102" s="170"/>
@@ -64223,13 +64409,13 @@
       <c r="H103" s="170"/>
       <c r="I103" s="170"/>
       <c r="J103" s="170" t="s">
-        <v>459</v>
+        <v>588</v>
       </c>
       <c r="K103" s="170" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="L103" s="170" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="M103" s="170"/>
       <c r="N103" s="170"/>
@@ -64670,13 +64856,13 @@
       <c r="H124" s="170"/>
       <c r="I124" s="170"/>
       <c r="J124" s="170" t="s">
-        <v>459</v>
+        <v>588</v>
       </c>
       <c r="K124" s="170" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="L124" s="170" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="M124" s="170"/>
       <c r="N124" s="170"/>
@@ -64701,13 +64887,13 @@
       <c r="H125" s="170"/>
       <c r="I125" s="170"/>
       <c r="J125" s="170" t="s">
-        <v>459</v>
+        <v>588</v>
       </c>
       <c r="K125" s="170" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="L125" s="170" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="M125" s="170"/>
       <c r="N125" s="170"/>
@@ -64732,13 +64918,13 @@
       <c r="H126" s="170"/>
       <c r="I126" s="170"/>
       <c r="J126" s="170" t="s">
-        <v>459</v>
+        <v>588</v>
       </c>
       <c r="K126" s="170" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="L126" s="170" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="M126" s="170"/>
       <c r="N126" s="170"/>
@@ -64763,13 +64949,13 @@
       <c r="H127" s="170"/>
       <c r="I127" s="170"/>
       <c r="J127" s="170" t="s">
-        <v>459</v>
+        <v>588</v>
       </c>
       <c r="K127" s="170" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="L127" s="170" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="M127" s="170"/>
       <c r="N127" s="170"/>
@@ -64794,13 +64980,13 @@
       <c r="H128" s="170"/>
       <c r="I128" s="170"/>
       <c r="J128" s="170" t="s">
-        <v>459</v>
+        <v>588</v>
       </c>
       <c r="K128" s="170" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="L128" s="170" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="M128" s="170"/>
       <c r="N128" s="170"/>
@@ -64825,13 +65011,13 @@
       <c r="H129" s="170"/>
       <c r="I129" s="170"/>
       <c r="J129" s="170" t="s">
-        <v>459</v>
+        <v>588</v>
       </c>
       <c r="K129" s="170" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="L129" s="170" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="M129" s="170"/>
       <c r="N129" s="170"/>
@@ -64856,13 +65042,13 @@
       <c r="H130" s="170"/>
       <c r="I130" s="170"/>
       <c r="J130" s="170" t="s">
-        <v>459</v>
+        <v>588</v>
       </c>
       <c r="K130" s="170" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="L130" s="170" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="M130" s="170"/>
       <c r="N130" s="170"/>
@@ -64887,13 +65073,13 @@
       <c r="H131" s="170"/>
       <c r="I131" s="170"/>
       <c r="J131" s="170" t="s">
-        <v>459</v>
+        <v>588</v>
       </c>
       <c r="K131" s="170" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="L131" s="170" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="M131" s="170"/>
       <c r="N131" s="170"/>
@@ -64918,13 +65104,13 @@
       <c r="H132" s="170"/>
       <c r="I132" s="170"/>
       <c r="J132" s="170" t="s">
-        <v>459</v>
+        <v>588</v>
       </c>
       <c r="K132" s="170" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="L132" s="170" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="M132" s="170"/>
       <c r="N132" s="170"/>
@@ -64949,13 +65135,13 @@
       <c r="H133" s="170"/>
       <c r="I133" s="170"/>
       <c r="J133" s="170" t="s">
-        <v>459</v>
+        <v>588</v>
       </c>
       <c r="K133" s="170" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="L133" s="170" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="M133" s="170"/>
       <c r="N133" s="170"/>
@@ -64980,13 +65166,13 @@
       <c r="H136" s="170"/>
       <c r="I136" s="170"/>
       <c r="J136" s="170" t="s">
-        <v>499</v>
+        <v>594</v>
       </c>
       <c r="K136" s="170" t="s">
-        <v>500</v>
+        <v>602</v>
       </c>
       <c r="L136" s="170" t="s">
-        <v>501</v>
+        <v>603</v>
       </c>
       <c r="M136" s="170"/>
       <c r="N136" s="170"/>
@@ -65011,13 +65197,13 @@
       <c r="H137" s="170"/>
       <c r="I137" s="170"/>
       <c r="J137" s="170" t="s">
-        <v>459</v>
+        <v>588</v>
       </c>
       <c r="K137" s="170" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="L137" s="170" t="s">
-        <v>461</v>
+        <v>596</v>
       </c>
       <c r="M137" s="170"/>
       <c r="N137" s="170"/>
@@ -65035,11 +65221,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD137"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="X116" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="T136" sqref="T136:V136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -65145,7 +65331,7 @@
         <v>234</v>
       </c>
       <c r="Z1" s="32" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="AA1" s="32" t="s">
         <v>69</v>
@@ -67958,11 +68144,11 @@
       <c r="AC34" s="74"/>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A35" s="248" t="s">
+      <c r="A35" s="249" t="s">
         <v>223</v>
       </c>
-      <c r="B35" s="249"/>
-      <c r="C35" s="250"/>
+      <c r="B35" s="250"/>
+      <c r="C35" s="251"/>
       <c r="D35" s="145"/>
       <c r="E35" s="118"/>
       <c r="F35" s="145"/>
@@ -69080,11 +69266,11 @@
       <c r="AC54" s="106"/>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A55" s="248" t="s">
+      <c r="A55" s="249" t="s">
         <v>224</v>
       </c>
-      <c r="B55" s="249"/>
-      <c r="C55" s="250"/>
+      <c r="B55" s="250"/>
+      <c r="C55" s="251"/>
       <c r="D55" s="145"/>
       <c r="E55" s="118"/>
       <c r="F55" s="145"/>
@@ -70183,11 +70369,11 @@
       <c r="AC74" s="106"/>
     </row>
     <row r="75" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A75" s="248" t="s">
+      <c r="A75" s="249" t="s">
         <v>225</v>
       </c>
-      <c r="B75" s="249"/>
-      <c r="C75" s="250"/>
+      <c r="B75" s="250"/>
+      <c r="C75" s="251"/>
       <c r="D75" s="145"/>
       <c r="E75" s="118"/>
       <c r="F75" s="145"/>
@@ -71287,11 +71473,11 @@
       <c r="AC94" s="106"/>
     </row>
     <row r="95" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A95" s="248" t="s">
+      <c r="A95" s="249" t="s">
         <v>226</v>
       </c>
-      <c r="B95" s="249"/>
-      <c r="C95" s="250"/>
+      <c r="B95" s="250"/>
+      <c r="C95" s="251"/>
       <c r="D95" s="145"/>
       <c r="E95" s="118"/>
       <c r="F95" s="145"/>
@@ -72406,11 +72592,11 @@
       <c r="AC114" s="106"/>
     </row>
     <row r="115" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A115" s="248" t="s">
+      <c r="A115" s="249" t="s">
         <v>227</v>
       </c>
-      <c r="B115" s="249"/>
-      <c r="C115" s="250"/>
+      <c r="B115" s="250"/>
+      <c r="C115" s="251"/>
       <c r="D115" s="145"/>
       <c r="E115" s="145"/>
       <c r="F115" s="145"/>
@@ -73553,11 +73739,11 @@
       </c>
     </row>
     <row r="135" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A135" s="252" t="s">
-        <v>489</v>
-      </c>
-      <c r="B135" s="253"/>
-      <c r="C135" s="254"/>
+      <c r="A135" s="253" t="s">
+        <v>484</v>
+      </c>
+      <c r="B135" s="254"/>
+      <c r="C135" s="255"/>
     </row>
     <row r="136" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A136" s="155">
@@ -73570,46 +73756,78 @@
       <c r="D136" s="127">
         <v>305.25</v>
       </c>
-      <c r="E136" s="127"/>
-      <c r="F136" s="127"/>
-      <c r="G136" s="127"/>
-      <c r="H136" s="127"/>
+      <c r="E136" s="118">
+        <v>0</v>
+      </c>
+      <c r="F136" s="118">
+        <v>0</v>
+      </c>
+      <c r="G136" s="118">
+        <v>0</v>
+      </c>
+      <c r="H136" s="118">
+        <v>0</v>
+      </c>
       <c r="I136" s="127">
         <v>10</v>
       </c>
       <c r="J136" s="127">
         <v>700</v>
       </c>
-      <c r="K136" s="127"/>
-      <c r="L136" s="127"/>
+      <c r="K136" s="118">
+        <v>0</v>
+      </c>
+      <c r="L136" s="118">
+        <v>0</v>
+      </c>
       <c r="M136" s="127">
         <v>100</v>
       </c>
-      <c r="N136" s="127"/>
+      <c r="N136" s="118">
+        <v>0</v>
+      </c>
       <c r="O136" s="127">
         <v>50</v>
       </c>
       <c r="P136" s="127">
         <v>200</v>
       </c>
-      <c r="Q136" s="127"/>
+      <c r="Q136" s="118">
+        <v>0</v>
+      </c>
       <c r="R136" s="127">
         <v>5</v>
       </c>
       <c r="S136" s="127">
         <v>3</v>
       </c>
-      <c r="T136" s="127"/>
-      <c r="U136" s="127"/>
-      <c r="V136" s="127"/>
+      <c r="T136" s="118">
+        <v>0</v>
+      </c>
+      <c r="U136" s="118">
+        <v>0</v>
+      </c>
+      <c r="V136" s="118">
+        <v>0</v>
+      </c>
       <c r="W136" s="127">
         <v>30.11</v>
       </c>
-      <c r="X136" s="127"/>
-      <c r="Y136" s="127"/>
-      <c r="Z136" s="127"/>
-      <c r="AA136" s="127"/>
-      <c r="AB136" s="127"/>
+      <c r="X136" s="118">
+        <v>0</v>
+      </c>
+      <c r="Y136" s="118">
+        <v>0</v>
+      </c>
+      <c r="Z136" s="118">
+        <v>0</v>
+      </c>
+      <c r="AA136" s="118">
+        <v>0</v>
+      </c>
+      <c r="AB136" s="118">
+        <v>0</v>
+      </c>
       <c r="AC136" s="127">
         <v>2219.75</v>
       </c>
@@ -73622,33 +73840,81 @@
         <v>200</v>
       </c>
       <c r="C137" s="132"/>
-      <c r="D137" s="127"/>
-      <c r="E137" s="127"/>
-      <c r="F137" s="127"/>
-      <c r="G137" s="127"/>
-      <c r="H137" s="127"/>
-      <c r="I137" s="127"/>
+      <c r="D137" s="118">
+        <v>0</v>
+      </c>
+      <c r="E137" s="118">
+        <v>0</v>
+      </c>
+      <c r="F137" s="118">
+        <v>0</v>
+      </c>
+      <c r="G137" s="118">
+        <v>0</v>
+      </c>
+      <c r="H137" s="118">
+        <v>0</v>
+      </c>
+      <c r="I137" s="118">
+        <v>0</v>
+      </c>
       <c r="J137" s="127">
         <v>2292.5</v>
       </c>
-      <c r="K137" s="127"/>
-      <c r="L137" s="127"/>
-      <c r="M137" s="127"/>
-      <c r="N137" s="127"/>
-      <c r="O137" s="127"/>
-      <c r="P137" s="127"/>
-      <c r="Q137" s="127"/>
-      <c r="R137" s="127"/>
-      <c r="S137" s="127"/>
-      <c r="T137" s="127"/>
-      <c r="U137" s="127"/>
-      <c r="V137" s="127"/>
-      <c r="W137" s="127"/>
-      <c r="X137" s="127"/>
-      <c r="Y137" s="127"/>
-      <c r="Z137" s="127"/>
-      <c r="AA137" s="127"/>
-      <c r="AB137" s="127"/>
+      <c r="K137" s="118">
+        <v>0</v>
+      </c>
+      <c r="L137" s="118">
+        <v>0</v>
+      </c>
+      <c r="M137" s="118">
+        <v>0</v>
+      </c>
+      <c r="N137" s="118">
+        <v>0</v>
+      </c>
+      <c r="O137" s="118">
+        <v>0</v>
+      </c>
+      <c r="P137" s="118">
+        <v>0</v>
+      </c>
+      <c r="Q137" s="118">
+        <v>0</v>
+      </c>
+      <c r="R137" s="118">
+        <v>0</v>
+      </c>
+      <c r="S137" s="118">
+        <v>0</v>
+      </c>
+      <c r="T137" s="118">
+        <v>0</v>
+      </c>
+      <c r="U137" s="118">
+        <v>0</v>
+      </c>
+      <c r="V137" s="118">
+        <v>0</v>
+      </c>
+      <c r="W137" s="118">
+        <v>0</v>
+      </c>
+      <c r="X137" s="118">
+        <v>0</v>
+      </c>
+      <c r="Y137" s="118">
+        <v>0</v>
+      </c>
+      <c r="Z137" s="118">
+        <v>0</v>
+      </c>
+      <c r="AA137" s="118">
+        <v>0</v>
+      </c>
+      <c r="AB137" s="118">
+        <v>0</v>
+      </c>
       <c r="AC137" s="127">
         <v>2292.5</v>
       </c>
@@ -73734,7 +74000,7 @@
         <v>169</v>
       </c>
       <c r="K1" s="80" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="L1" s="80" t="s">
         <v>171</v>
